--- a/data/procesados/procesadosCanal/drimel.xlsx
+++ b/data/procesados/procesadosCanal/drimel.xlsx
@@ -415,10 +415,10 @@
     <t>ESTRELLA-HISOPOSx100</t>
   </si>
   <si>
-    <t>ESTRELLA-OLEO-ALOEx250</t>
-  </si>
-  <si>
-    <t>ESTRELLA-TOALLAS-HUMEDAS-CUIDADOx50</t>
+    <t>estrella-oleo-aloe-250</t>
+  </si>
+  <si>
+    <t>estrella-toallas-humedas-cuidado-x-50</t>
   </si>
   <si>
     <t>JOHNSONS-BA-O-LIQ-GLICERINAx200</t>
@@ -1006,10 +1006,10 @@
     <t>ESTRELLA HISOPOSx100</t>
   </si>
   <si>
-    <t>ESTRELLA OLEO ALOEx250</t>
-  </si>
-  <si>
-    <t>ESTRELLA TOALLAS HUMEDAS CUIDADOx50</t>
+    <t>Estrella - Oleo aloe 250</t>
+  </si>
+  <si>
+    <t>Estrella - Toallas humedas cuidado x 50</t>
   </si>
   <si>
     <t>JOHNSONS BAÑO LIQ.GLICERINAx200</t>
@@ -1945,7 +1945,7 @@
     <t>724.00</t>
   </si>
   <si>
-    <t>820.00</t>
+    <t>887.00</t>
   </si>
   <si>
     <t>710.00</t>
@@ -4868,7 +4868,7 @@
         <v>269</v>
       </c>
       <c r="C63">
-        <v>984</v>
+        <v>993</v>
       </c>
       <c r="D63" t="s">
         <v>466</v>

--- a/data/procesados/procesadosCanal/drimel.xlsx
+++ b/data/procesados/procesadosCanal/drimel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="951">
   <si>
     <t>Identificador de URL</t>
   </si>
@@ -46,6 +46,12 @@
     <t>Descripción para SEO</t>
   </si>
   <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
     <t>SKU</t>
   </si>
   <si>
@@ -628,10 +634,10 @@
     <t>PAMPERS-SUPER-XTR-MES-Mx72</t>
   </si>
   <si>
-    <t>BABYSEC-SUPER-PREMIUM-XGx36</t>
-  </si>
-  <si>
-    <t>BABYSEC-SUPER-PREMIUM-XXGx34</t>
+    <t>babysec-super-premium-xgrande-x-36</t>
+  </si>
+  <si>
+    <t>babysec-super-premium-xxgrande-x-34</t>
   </si>
   <si>
     <t>PAMPERS-PREMIUM-XTR-RN-x56</t>
@@ -1219,10 +1225,10 @@
     <t>PAMPERS SUPER XTR MES Mx72</t>
   </si>
   <si>
-    <t>BABYSEC SUPER PREMIUM XGx36</t>
-  </si>
-  <si>
-    <t>BABYSEC SUPER PREMIUM XXGx34</t>
+    <t>Babysec - Super premium - XGrande x 36</t>
+  </si>
+  <si>
+    <t>Babysec - Super premium - XXGrande x 34</t>
   </si>
   <si>
     <t>PAMPERS PREMIUM XTR RN+ x56</t>
@@ -1858,28 +1864,28 @@
     <t>1,581.00</t>
   </si>
   <si>
-    <t>2,157.00</t>
+    <t>2,182.00</t>
   </si>
   <si>
     <t>3,015.00</t>
   </si>
   <si>
-    <t>3,138.00</t>
-  </si>
-  <si>
-    <t>554.00</t>
+    <t>3,176.00</t>
+  </si>
+  <si>
+    <t>582.00</t>
   </si>
   <si>
     <t>2,668.00</t>
   </si>
   <si>
-    <t>532.00</t>
-  </si>
-  <si>
-    <t>231.00</t>
-  </si>
-  <si>
-    <t>1,077.00</t>
+    <t>542.00</t>
+  </si>
+  <si>
+    <t>266.00</t>
+  </si>
+  <si>
+    <t>1,131.00</t>
   </si>
   <si>
     <t>4,166.00</t>
@@ -1891,40 +1897,40 @@
     <t>3,123.00</t>
   </si>
   <si>
-    <t>1,613.00</t>
-  </si>
-  <si>
-    <t>2,375.00</t>
+    <t>1,694.00</t>
+  </si>
+  <si>
+    <t>2,494.00</t>
   </si>
   <si>
     <t>3,603.00</t>
   </si>
   <si>
-    <t>1,033.00</t>
-  </si>
-  <si>
-    <t>369.00</t>
-  </si>
-  <si>
-    <t>652.00</t>
-  </si>
-  <si>
-    <t>1,076.00</t>
-  </si>
-  <si>
-    <t>1,181.00</t>
-  </si>
-  <si>
-    <t>922.00</t>
-  </si>
-  <si>
-    <t>1,652.00</t>
-  </si>
-  <si>
-    <t>2,117.00</t>
-  </si>
-  <si>
-    <t>1,874.00</t>
+    <t>1,085.00</t>
+  </si>
+  <si>
+    <t>388.00</t>
+  </si>
+  <si>
+    <t>684.00</t>
+  </si>
+  <si>
+    <t>1,184.00</t>
+  </si>
+  <si>
+    <t>1,240.00</t>
+  </si>
+  <si>
+    <t>968.00</t>
+  </si>
+  <si>
+    <t>1,735.00</t>
+  </si>
+  <si>
+    <t>2,223.00</t>
+  </si>
+  <si>
+    <t>1,967.00</t>
   </si>
   <si>
     <t>501.00</t>
@@ -1942,25 +1948,25 @@
     <t>3,804.00</t>
   </si>
   <si>
-    <t>724.00</t>
-  </si>
-  <si>
-    <t>887.00</t>
-  </si>
-  <si>
-    <t>710.00</t>
+    <t>760.00</t>
+  </si>
+  <si>
+    <t>932.00</t>
+  </si>
+  <si>
+    <t>745.00</t>
   </si>
   <si>
     <t>2,125.00</t>
   </si>
   <si>
-    <t>416.00</t>
+    <t>429.00</t>
   </si>
   <si>
     <t>407.00</t>
   </si>
   <si>
-    <t>300.00</t>
+    <t>328.00</t>
   </si>
   <si>
     <t>510.00</t>
@@ -1972,7 +1978,7 @@
     <t>2,302.00</t>
   </si>
   <si>
-    <t>185.00</t>
+    <t>188.00</t>
   </si>
   <si>
     <t>1,598.00</t>
@@ -1984,7 +1990,7 @@
     <t>478.00</t>
   </si>
   <si>
-    <t>1,440.00</t>
+    <t>1,512.00</t>
   </si>
   <si>
     <t>6,712.00</t>
@@ -2020,7 +2026,10 @@
     <t>1,482.00</t>
   </si>
   <si>
-    <t>474.00</t>
+    <t>546.00</t>
+  </si>
+  <si>
+    <t>498.00</t>
   </si>
   <si>
     <t>186.00</t>
@@ -2041,10 +2050,10 @@
     <t>1,335.00</t>
   </si>
   <si>
-    <t>650.00</t>
-  </si>
-  <si>
-    <t>494.00</t>
+    <t>682.00</t>
+  </si>
+  <si>
+    <t>508.00</t>
   </si>
   <si>
     <t>380.00</t>
@@ -2056,10 +2065,10 @@
     <t>823.00</t>
   </si>
   <si>
-    <t>206.00</t>
-  </si>
-  <si>
-    <t>441.00</t>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>463.00</t>
   </si>
   <si>
     <t>2,030.00</t>
@@ -2083,9 +2092,6 @@
     <t>702.00</t>
   </si>
   <si>
-    <t>932.00</t>
-  </si>
-  <si>
     <t>1,367.00</t>
   </si>
   <si>
@@ -2116,9 +2122,6 @@
     <t>4,717.00</t>
   </si>
   <si>
-    <t>2,182.00</t>
-  </si>
-  <si>
     <t>3,144.00</t>
   </si>
   <si>
@@ -2237,6 +2240,42 @@
   </si>
   <si>
     <t>higiene, mes, Pampers Premium, panal, XGx58</t>
+  </si>
+  <si>
+    <t>Pampers</t>
+  </si>
+  <si>
+    <t>Duffy</t>
+  </si>
+  <si>
+    <t>Huggies</t>
+  </si>
+  <si>
+    <t>Babysec</t>
+  </si>
+  <si>
+    <t>Upa</t>
+  </si>
+  <si>
+    <t>Doncella</t>
+  </si>
+  <si>
+    <t>Kimbies</t>
+  </si>
+  <si>
+    <t>Estrella</t>
+  </si>
+  <si>
+    <t>Caricia</t>
+  </si>
+  <si>
+    <t>Johnsons</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>Deyse</t>
   </si>
   <si>
     <t>Drimel854</t>
@@ -3185,13 +3224,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K198"/>
+  <dimension ref="A1:M198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3225,5034 +3264,5607 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C2">
         <v>2080</v>
       </c>
       <c r="D2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H2" t="s">
-        <v>716</v>
-      </c>
-      <c r="K2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>717</v>
+      </c>
+      <c r="L2" t="s">
+        <v>742</v>
+      </c>
+      <c r="M2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C3">
         <v>1320</v>
       </c>
       <c r="D3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E3" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F3" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G3" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H3" t="s">
-        <v>717</v>
-      </c>
-      <c r="K3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>718</v>
+      </c>
+      <c r="L3" t="s">
+        <v>743</v>
+      </c>
+      <c r="M3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C4">
         <v>791</v>
       </c>
       <c r="D4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E4" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F4" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G4" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H4" t="s">
-        <v>718</v>
-      </c>
-      <c r="K4" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>719</v>
+      </c>
+      <c r="L4" t="s">
+        <v>742</v>
+      </c>
+      <c r="M4" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C5">
         <v>1677</v>
       </c>
       <c r="D5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E5" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F5" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G5" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H5" t="s">
-        <v>719</v>
-      </c>
-      <c r="K5" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>720</v>
+      </c>
+      <c r="L5" t="s">
+        <v>742</v>
+      </c>
+      <c r="M5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C6">
         <v>2198</v>
       </c>
       <c r="D6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E6" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F6" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G6" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H6" t="s">
-        <v>720</v>
-      </c>
-      <c r="K6" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>721</v>
+      </c>
+      <c r="L6" t="s">
+        <v>742</v>
+      </c>
+      <c r="M6" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C7">
         <v>3291</v>
       </c>
       <c r="D7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H7" t="s">
-        <v>721</v>
-      </c>
-      <c r="K7" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>722</v>
+      </c>
+      <c r="L7" t="s">
+        <v>742</v>
+      </c>
+      <c r="M7" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C8">
         <v>4698</v>
       </c>
       <c r="D8" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E8" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F8" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G8" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H8" t="s">
-        <v>722</v>
-      </c>
-      <c r="K8" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>723</v>
+      </c>
+      <c r="L8" t="s">
+        <v>742</v>
+      </c>
+      <c r="M8" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C9">
         <v>1946</v>
       </c>
       <c r="D9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E9" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F9" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G9" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H9" t="s">
-        <v>723</v>
-      </c>
-      <c r="K9" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>724</v>
+      </c>
+      <c r="L9" t="s">
+        <v>742</v>
+      </c>
+      <c r="M9" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C10">
         <v>1990</v>
       </c>
       <c r="D10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E10" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F10" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="G10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H10" t="s">
-        <v>724</v>
-      </c>
-      <c r="K10" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>725</v>
+      </c>
+      <c r="L10" t="s">
+        <v>742</v>
+      </c>
+      <c r="M10" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C11">
         <v>2308</v>
       </c>
       <c r="D11" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E11" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F11" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G11" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H11" t="s">
-        <v>725</v>
-      </c>
-      <c r="K11" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>726</v>
+      </c>
+      <c r="L11" t="s">
+        <v>744</v>
+      </c>
+      <c r="M11" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C12">
         <v>3291</v>
       </c>
       <c r="D12" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E12" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F12" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G12" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H12" t="s">
-        <v>726</v>
-      </c>
-      <c r="K12" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>727</v>
+      </c>
+      <c r="L12" t="s">
+        <v>742</v>
+      </c>
+      <c r="M12" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C13">
         <v>1771</v>
       </c>
       <c r="D13" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E13" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F13" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G13" t="s">
+        <v>715</v>
+      </c>
+      <c r="H13" t="s">
+        <v>728</v>
+      </c>
+      <c r="L13" t="s">
+        <v>743</v>
+      </c>
+      <c r="M13" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14">
+        <v>2444</v>
+      </c>
+      <c r="D14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E14" t="s">
+        <v>604</v>
+      </c>
+      <c r="F14" t="s">
+        <v>616</v>
+      </c>
+      <c r="G14" t="s">
         <v>714</v>
       </c>
-      <c r="H13" t="s">
-        <v>727</v>
-      </c>
-      <c r="K13" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14">
-        <v>2416</v>
-      </c>
-      <c r="D14" t="s">
-        <v>417</v>
-      </c>
-      <c r="E14" t="s">
-        <v>602</v>
-      </c>
-      <c r="F14" t="s">
-        <v>614</v>
-      </c>
-      <c r="G14" t="s">
-        <v>713</v>
-      </c>
       <c r="H14" t="s">
-        <v>728</v>
-      </c>
-      <c r="K14" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>729</v>
+      </c>
+      <c r="L14" t="s">
+        <v>745</v>
+      </c>
+      <c r="M14" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C15">
         <v>4698</v>
       </c>
       <c r="D15" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E15" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F15" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G15" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H15" t="s">
-        <v>729</v>
-      </c>
-      <c r="K15" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>730</v>
+      </c>
+      <c r="L15" t="s">
+        <v>742</v>
+      </c>
+      <c r="M15" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C16">
         <v>3467</v>
       </c>
       <c r="D16" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E16" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F16" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G16" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H16" t="s">
-        <v>730</v>
-      </c>
-      <c r="K16" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>731</v>
+      </c>
+      <c r="M16" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C17">
         <v>3467</v>
       </c>
       <c r="D17" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E17" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F17" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G17" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H17" t="s">
-        <v>731</v>
-      </c>
-      <c r="K17" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>732</v>
+      </c>
+      <c r="M17" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C18">
-        <v>3515</v>
+        <v>3557</v>
       </c>
       <c r="D18" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E18" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F18" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G18" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H18" t="s">
-        <v>732</v>
-      </c>
-      <c r="K18" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>733</v>
+      </c>
+      <c r="L18" t="s">
+        <v>745</v>
+      </c>
+      <c r="M18" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C19">
-        <v>3515</v>
+        <v>3557</v>
       </c>
       <c r="D19" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E19" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F19" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G19" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H19" t="s">
-        <v>733</v>
-      </c>
-      <c r="K19" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>734</v>
+      </c>
+      <c r="L19" t="s">
+        <v>745</v>
+      </c>
+      <c r="M19" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C20">
-        <v>3515</v>
+        <v>3557</v>
       </c>
       <c r="D20" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E20" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F20" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G20" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H20" t="s">
-        <v>734</v>
-      </c>
-      <c r="K20" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>735</v>
+      </c>
+      <c r="L20" t="s">
+        <v>745</v>
+      </c>
+      <c r="M20" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C21">
-        <v>620</v>
+        <v>652</v>
       </c>
       <c r="D21" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E21" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F21" t="s">
-        <v>617</v>
-      </c>
-      <c r="K21" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>619</v>
+      </c>
+      <c r="L21" t="s">
+        <v>744</v>
+      </c>
+      <c r="M21" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C22">
         <v>2988</v>
       </c>
       <c r="D22" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E22" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F22" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G22" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H22" t="s">
-        <v>735</v>
-      </c>
-      <c r="K22" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>736</v>
+      </c>
+      <c r="L22" t="s">
+        <v>745</v>
+      </c>
+      <c r="M22" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C23">
         <v>2988</v>
       </c>
       <c r="D23" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E23" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F23" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G23" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H23" t="s">
-        <v>736</v>
-      </c>
-      <c r="K23" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>737</v>
+      </c>
+      <c r="L23" t="s">
+        <v>745</v>
+      </c>
+      <c r="M23" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C24">
         <v>2988</v>
       </c>
       <c r="D24" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E24" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F24" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G24" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H24" t="s">
-        <v>737</v>
-      </c>
-      <c r="K24" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>738</v>
+      </c>
+      <c r="L24" t="s">
+        <v>745</v>
+      </c>
+      <c r="M24" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C25">
         <v>2988</v>
       </c>
       <c r="D25" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E25" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F25" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G25" t="s">
+        <v>713</v>
+      </c>
+      <c r="H25" t="s">
+        <v>739</v>
+      </c>
+      <c r="L25" t="s">
+        <v>745</v>
+      </c>
+      <c r="M25" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26">
+        <v>607</v>
+      </c>
+      <c r="D26" t="s">
+        <v>431</v>
+      </c>
+      <c r="E26" t="s">
+        <v>604</v>
+      </c>
+      <c r="F26" t="s">
+        <v>621</v>
+      </c>
+      <c r="L26" t="s">
+        <v>744</v>
+      </c>
+      <c r="M26" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27">
+        <v>298</v>
+      </c>
+      <c r="D27" t="s">
+        <v>432</v>
+      </c>
+      <c r="E27" t="s">
+        <v>604</v>
+      </c>
+      <c r="F27" t="s">
+        <v>622</v>
+      </c>
+      <c r="L27" t="s">
+        <v>746</v>
+      </c>
+      <c r="M27" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28">
+        <v>1267</v>
+      </c>
+      <c r="D28" t="s">
+        <v>433</v>
+      </c>
+      <c r="E28" t="s">
+        <v>604</v>
+      </c>
+      <c r="F28" t="s">
+        <v>623</v>
+      </c>
+      <c r="G28" t="s">
         <v>712</v>
       </c>
-      <c r="H25" t="s">
-        <v>738</v>
-      </c>
-      <c r="K25" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>232</v>
-      </c>
-      <c r="C26">
-        <v>585</v>
-      </c>
-      <c r="D26" t="s">
-        <v>429</v>
-      </c>
-      <c r="E26" t="s">
-        <v>602</v>
-      </c>
-      <c r="F26" t="s">
-        <v>619</v>
-      </c>
-      <c r="K26" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" t="s">
-        <v>233</v>
-      </c>
-      <c r="C27">
-        <v>266</v>
-      </c>
-      <c r="D27" t="s">
-        <v>430</v>
-      </c>
-      <c r="E27" t="s">
-        <v>602</v>
-      </c>
-      <c r="F27" t="s">
-        <v>620</v>
-      </c>
-      <c r="K27" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" t="s">
-        <v>234</v>
-      </c>
-      <c r="C28">
-        <v>1206</v>
-      </c>
-      <c r="D28" t="s">
-        <v>431</v>
-      </c>
-      <c r="E28" t="s">
-        <v>602</v>
-      </c>
-      <c r="F28" t="s">
-        <v>621</v>
-      </c>
-      <c r="G28" t="s">
-        <v>711</v>
-      </c>
       <c r="H28" t="s">
-        <v>739</v>
-      </c>
-      <c r="K28" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>740</v>
+      </c>
+      <c r="L28" t="s">
+        <v>744</v>
+      </c>
+      <c r="M28" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C29">
         <v>4666</v>
       </c>
       <c r="D29" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E29" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F29" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G29" t="s">
-        <v>713</v>
-      </c>
-      <c r="K29" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>714</v>
+      </c>
+      <c r="L29" t="s">
+        <v>744</v>
+      </c>
+      <c r="M29" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C30">
         <v>4666</v>
       </c>
       <c r="D30" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E30" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F30" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G30" t="s">
-        <v>712</v>
-      </c>
-      <c r="K30" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L30" t="s">
+        <v>744</v>
+      </c>
+      <c r="M30" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C31">
         <v>4666</v>
       </c>
       <c r="D31" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E31" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F31" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G31" t="s">
-        <v>712</v>
-      </c>
-      <c r="K31" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L31" t="s">
+        <v>744</v>
+      </c>
+      <c r="M31" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C32">
         <v>4666</v>
       </c>
       <c r="D32" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E32" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F32" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G32" t="s">
-        <v>712</v>
-      </c>
-      <c r="K32" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L32" t="s">
+        <v>744</v>
+      </c>
+      <c r="M32" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C33">
         <v>2464</v>
       </c>
       <c r="D33" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E33" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F33" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G33" t="s">
-        <v>713</v>
-      </c>
-      <c r="K33" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>714</v>
+      </c>
+      <c r="L33" t="s">
+        <v>743</v>
+      </c>
+      <c r="M33" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C34">
         <v>3498</v>
       </c>
       <c r="D34" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E34" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F34" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G34" t="s">
-        <v>713</v>
-      </c>
-      <c r="K34" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>714</v>
+      </c>
+      <c r="L34" t="s">
+        <v>744</v>
+      </c>
+      <c r="M34" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C35">
         <v>3498</v>
       </c>
       <c r="D35" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E35" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F35" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G35" t="s">
-        <v>712</v>
-      </c>
-      <c r="K35" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L35" t="s">
+        <v>744</v>
+      </c>
+      <c r="M35" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C36">
         <v>3498</v>
       </c>
       <c r="D36" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E36" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F36" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G36" t="s">
-        <v>712</v>
-      </c>
-      <c r="K36" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L36" t="s">
+        <v>744</v>
+      </c>
+      <c r="M36" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C37">
         <v>3498</v>
       </c>
       <c r="D37" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E37" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F37" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G37" t="s">
-        <v>712</v>
-      </c>
-      <c r="K37" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L37" t="s">
+        <v>744</v>
+      </c>
+      <c r="M37" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C38">
-        <v>1807</v>
+        <v>1897</v>
       </c>
       <c r="D38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E38" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F38" t="s">
-        <v>625</v>
-      </c>
-      <c r="K38" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>627</v>
+      </c>
+      <c r="L38" t="s">
+        <v>744</v>
+      </c>
+      <c r="M38" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C39">
-        <v>2660</v>
+        <v>2793</v>
       </c>
       <c r="D39" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E39" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F39" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G39" t="s">
-        <v>714</v>
-      </c>
-      <c r="K39" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>715</v>
+      </c>
+      <c r="L39" t="s">
+        <v>744</v>
+      </c>
+      <c r="M39" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C40">
         <v>4035</v>
       </c>
       <c r="D40" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E40" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F40" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G40" t="s">
+        <v>713</v>
+      </c>
+      <c r="L40" t="s">
+        <v>744</v>
+      </c>
+      <c r="M40" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>249</v>
+      </c>
+      <c r="C41">
+        <v>1215</v>
+      </c>
+      <c r="D41" t="s">
+        <v>446</v>
+      </c>
+      <c r="E41" t="s">
+        <v>604</v>
+      </c>
+      <c r="F41" t="s">
+        <v>630</v>
+      </c>
+      <c r="G41" t="s">
+        <v>715</v>
+      </c>
+      <c r="L41" t="s">
+        <v>744</v>
+      </c>
+      <c r="M41" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>250</v>
+      </c>
+      <c r="C42">
+        <v>435</v>
+      </c>
+      <c r="D42" t="s">
+        <v>447</v>
+      </c>
+      <c r="E42" t="s">
+        <v>604</v>
+      </c>
+      <c r="F42" t="s">
+        <v>631</v>
+      </c>
+      <c r="L42" t="s">
+        <v>744</v>
+      </c>
+      <c r="M42" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>251</v>
+      </c>
+      <c r="C43">
+        <v>766</v>
+      </c>
+      <c r="D43" t="s">
+        <v>448</v>
+      </c>
+      <c r="E43" t="s">
+        <v>604</v>
+      </c>
+      <c r="F43" t="s">
+        <v>632</v>
+      </c>
+      <c r="L43" t="s">
+        <v>744</v>
+      </c>
+      <c r="M43" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44">
+        <v>1326</v>
+      </c>
+      <c r="D44" t="s">
+        <v>449</v>
+      </c>
+      <c r="E44" t="s">
+        <v>604</v>
+      </c>
+      <c r="F44" t="s">
+        <v>633</v>
+      </c>
+      <c r="G44" t="s">
+        <v>715</v>
+      </c>
+      <c r="L44" t="s">
+        <v>744</v>
+      </c>
+      <c r="M44" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>253</v>
+      </c>
+      <c r="C45">
+        <v>1389</v>
+      </c>
+      <c r="D45" t="s">
+        <v>450</v>
+      </c>
+      <c r="E45" t="s">
+        <v>604</v>
+      </c>
+      <c r="F45" t="s">
+        <v>634</v>
+      </c>
+      <c r="G45" t="s">
         <v>712</v>
       </c>
-      <c r="K40" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" t="s">
-        <v>247</v>
-      </c>
-      <c r="C41">
-        <v>1157</v>
-      </c>
-      <c r="D41" t="s">
-        <v>444</v>
-      </c>
-      <c r="E41" t="s">
-        <v>602</v>
-      </c>
-      <c r="F41" t="s">
-        <v>628</v>
-      </c>
-      <c r="G41" t="s">
-        <v>714</v>
-      </c>
-      <c r="K41" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" t="s">
-        <v>248</v>
-      </c>
-      <c r="C42">
-        <v>413</v>
-      </c>
-      <c r="D42" t="s">
-        <v>445</v>
-      </c>
-      <c r="E42" t="s">
-        <v>602</v>
-      </c>
-      <c r="F42" t="s">
-        <v>629</v>
-      </c>
-      <c r="K42" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" t="s">
-        <v>249</v>
-      </c>
-      <c r="C43">
-        <v>730</v>
-      </c>
-      <c r="D43" t="s">
-        <v>446</v>
-      </c>
-      <c r="E43" t="s">
-        <v>602</v>
-      </c>
-      <c r="F43" t="s">
-        <v>630</v>
-      </c>
-      <c r="K43" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" t="s">
-        <v>250</v>
-      </c>
-      <c r="C44">
-        <v>1237</v>
-      </c>
-      <c r="D44" t="s">
-        <v>447</v>
-      </c>
-      <c r="E44" t="s">
-        <v>602</v>
-      </c>
-      <c r="F44" t="s">
-        <v>631</v>
-      </c>
-      <c r="G44" t="s">
-        <v>714</v>
-      </c>
-      <c r="K44" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" t="s">
-        <v>251</v>
-      </c>
-      <c r="C45">
-        <v>1323</v>
-      </c>
-      <c r="D45" t="s">
-        <v>448</v>
-      </c>
-      <c r="E45" t="s">
-        <v>602</v>
-      </c>
-      <c r="F45" t="s">
-        <v>632</v>
-      </c>
-      <c r="G45" t="s">
-        <v>711</v>
-      </c>
-      <c r="K45" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45" t="s">
+        <v>744</v>
+      </c>
+      <c r="M45" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C46">
-        <v>1033</v>
+        <v>1084</v>
       </c>
       <c r="D46" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E46" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F46" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="G46" t="s">
-        <v>711</v>
-      </c>
-      <c r="K46" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>712</v>
+      </c>
+      <c r="L46" t="s">
+        <v>744</v>
+      </c>
+      <c r="M46" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C47">
-        <v>1850</v>
+        <v>1943</v>
       </c>
       <c r="D47" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E47" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F47" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G47" t="s">
-        <v>711</v>
-      </c>
-      <c r="K47" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>712</v>
+      </c>
+      <c r="L47" t="s">
+        <v>744</v>
+      </c>
+      <c r="M47" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C48">
-        <v>1850</v>
+        <v>1943</v>
       </c>
       <c r="D48" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E48" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F48" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G48" t="s">
-        <v>714</v>
-      </c>
-      <c r="K48" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>715</v>
+      </c>
+      <c r="L48" t="s">
+        <v>744</v>
+      </c>
+      <c r="M48" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C49">
         <v>4035</v>
       </c>
       <c r="D49" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E49" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F49" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G49" t="s">
-        <v>713</v>
-      </c>
-      <c r="K49" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>714</v>
+      </c>
+      <c r="L49" t="s">
+        <v>744</v>
+      </c>
+      <c r="M49" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C50">
         <v>4035</v>
       </c>
       <c r="D50" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E50" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F50" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G50" t="s">
+        <v>713</v>
+      </c>
+      <c r="L50" t="s">
+        <v>744</v>
+      </c>
+      <c r="M50" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>259</v>
+      </c>
+      <c r="C51">
+        <v>2490</v>
+      </c>
+      <c r="D51" t="s">
+        <v>456</v>
+      </c>
+      <c r="E51" t="s">
+        <v>604</v>
+      </c>
+      <c r="F51" t="s">
+        <v>637</v>
+      </c>
+      <c r="G51" t="s">
         <v>712</v>
       </c>
-      <c r="K50" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" t="s">
-        <v>257</v>
-      </c>
-      <c r="C51">
-        <v>2371</v>
-      </c>
-      <c r="D51" t="s">
-        <v>454</v>
-      </c>
-      <c r="E51" t="s">
-        <v>602</v>
-      </c>
-      <c r="F51" t="s">
-        <v>635</v>
-      </c>
-      <c r="G51" t="s">
-        <v>711</v>
-      </c>
-      <c r="K51" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51" t="s">
+        <v>744</v>
+      </c>
+      <c r="M51" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C52">
-        <v>2099</v>
+        <v>2203</v>
       </c>
       <c r="D52" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E52" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F52" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G52" t="s">
-        <v>714</v>
-      </c>
-      <c r="K52" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>715</v>
+      </c>
+      <c r="L52" t="s">
+        <v>744</v>
+      </c>
+      <c r="M52" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C53">
         <v>561</v>
       </c>
       <c r="D53" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E53" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F53" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G53" t="s">
-        <v>712</v>
-      </c>
-      <c r="K53" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L53" t="s">
+        <v>742</v>
+      </c>
+      <c r="M53" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C54">
         <v>1624</v>
       </c>
       <c r="D54" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E54" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F54" t="s">
-        <v>638</v>
-      </c>
-      <c r="K54" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>640</v>
+      </c>
+      <c r="L54" t="s">
+        <v>742</v>
+      </c>
+      <c r="M54" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C55">
         <v>2121</v>
       </c>
       <c r="D55" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E55" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F55" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="G55" t="s">
-        <v>712</v>
-      </c>
-      <c r="K55" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="M55" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C56">
         <v>2121</v>
       </c>
       <c r="D56" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E56" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F56" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="G56" t="s">
-        <v>712</v>
-      </c>
-      <c r="K56" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="M56" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C57">
         <v>3398</v>
       </c>
       <c r="D57" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E57" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F57" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G57" t="s">
-        <v>712</v>
-      </c>
-      <c r="K57" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L57" t="s">
+        <v>744</v>
+      </c>
+      <c r="M57" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C58">
         <v>3398</v>
       </c>
       <c r="D58" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E58" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F58" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G58" t="s">
-        <v>712</v>
-      </c>
-      <c r="K58" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L58" t="s">
+        <v>744</v>
+      </c>
+      <c r="M58" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C59">
         <v>3398</v>
       </c>
       <c r="D59" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E59" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F59" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G59" t="s">
-        <v>712</v>
-      </c>
-      <c r="K59" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L59" t="s">
+        <v>744</v>
+      </c>
+      <c r="M59" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C60">
         <v>4260</v>
       </c>
       <c r="D60" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E60" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F60" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="G60" t="s">
-        <v>712</v>
-      </c>
-      <c r="K60" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L60" t="s">
+        <v>742</v>
+      </c>
+      <c r="M60" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C61">
-        <v>811</v>
+        <v>851</v>
       </c>
       <c r="D61" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E61" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F61" t="s">
-        <v>642</v>
-      </c>
-      <c r="K61" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>644</v>
+      </c>
+      <c r="L61" t="s">
+        <v>744</v>
+      </c>
+      <c r="M61" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C62">
         <v>3398</v>
       </c>
       <c r="D62" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E62" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F62" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G62" t="s">
-        <v>713</v>
-      </c>
-      <c r="K62" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>714</v>
+      </c>
+      <c r="L62" t="s">
+        <v>744</v>
+      </c>
+      <c r="M62" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C63">
-        <v>993</v>
+        <v>1044</v>
       </c>
       <c r="D63" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E63" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F63" t="s">
-        <v>643</v>
-      </c>
-      <c r="K63" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>645</v>
+      </c>
+      <c r="L63" t="s">
+        <v>744</v>
+      </c>
+      <c r="M63" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C64">
-        <v>795</v>
+        <v>834</v>
       </c>
       <c r="D64" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E64" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F64" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G64" t="s">
-        <v>711</v>
-      </c>
-      <c r="K64" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>712</v>
+      </c>
+      <c r="L64" t="s">
+        <v>744</v>
+      </c>
+      <c r="M64" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C65">
         <v>561</v>
       </c>
       <c r="D65" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E65" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F65" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G65" t="s">
-        <v>712</v>
-      </c>
-      <c r="K65" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L65" t="s">
+        <v>742</v>
+      </c>
+      <c r="M65" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C66">
         <v>2380</v>
       </c>
       <c r="D66" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E66" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F66" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="G66" t="s">
-        <v>713</v>
-      </c>
-      <c r="K66" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>714</v>
+      </c>
+      <c r="L66" t="s">
+        <v>742</v>
+      </c>
+      <c r="M66" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C67">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="D67" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E67" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F67" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G67" t="s">
-        <v>712</v>
-      </c>
-      <c r="K67" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L67" t="s">
+        <v>745</v>
+      </c>
+      <c r="M67" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C68">
         <v>456</v>
       </c>
       <c r="D68" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E68" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F68" t="s">
-        <v>647</v>
-      </c>
-      <c r="K68" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>649</v>
+      </c>
+      <c r="L68" t="s">
+        <v>747</v>
+      </c>
+      <c r="M68" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C69">
-        <v>2416</v>
+        <v>2444</v>
       </c>
       <c r="D69" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E69" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F69" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G69" t="s">
-        <v>712</v>
-      </c>
-      <c r="K69" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L69" t="s">
+        <v>745</v>
+      </c>
+      <c r="M69" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C70">
-        <v>2416</v>
+        <v>2444</v>
       </c>
       <c r="D70" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E70" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F70" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G70" t="s">
-        <v>712</v>
-      </c>
-      <c r="K70" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L70" t="s">
+        <v>745</v>
+      </c>
+      <c r="M70" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C71">
         <v>561</v>
       </c>
       <c r="D71" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E71" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F71" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G71" t="s">
-        <v>713</v>
-      </c>
-      <c r="K71" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>714</v>
+      </c>
+      <c r="L71" t="s">
+        <v>742</v>
+      </c>
+      <c r="M71" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C72">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="D72" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E72" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F72" t="s">
-        <v>648</v>
-      </c>
-      <c r="K72" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>650</v>
+      </c>
+      <c r="L72" t="s">
+        <v>748</v>
+      </c>
+      <c r="M72" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C73">
         <v>3467</v>
       </c>
       <c r="D73" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E73" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F73" t="s">
-        <v>615</v>
-      </c>
-      <c r="K73" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>617</v>
+      </c>
+      <c r="M73" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C74">
-        <v>2371</v>
+        <v>2490</v>
       </c>
       <c r="D74" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E74" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F74" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="G74" t="s">
-        <v>714</v>
-      </c>
-      <c r="K74" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>715</v>
+      </c>
+      <c r="L74" t="s">
+        <v>744</v>
+      </c>
+      <c r="M74" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C75">
         <v>587</v>
       </c>
       <c r="D75" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E75" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F75" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="G75" t="s">
-        <v>712</v>
-      </c>
-      <c r="K75" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L75" t="s">
+        <v>742</v>
+      </c>
+      <c r="M75" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C76">
         <v>561</v>
       </c>
       <c r="D76" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E76" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F76" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G76" t="s">
-        <v>714</v>
-      </c>
-      <c r="K76" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>715</v>
+      </c>
+      <c r="L76" t="s">
+        <v>742</v>
+      </c>
+      <c r="M76" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C77">
         <v>4215</v>
       </c>
       <c r="D77" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E77" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F77" t="s">
-        <v>650</v>
-      </c>
-      <c r="K77" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>652</v>
+      </c>
+      <c r="L77" t="s">
+        <v>749</v>
+      </c>
+      <c r="M77" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C78">
         <v>2578</v>
       </c>
       <c r="D78" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E78" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F78" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="G78" t="s">
-        <v>713</v>
-      </c>
-      <c r="K78" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>714</v>
+      </c>
+      <c r="L78" t="s">
+        <v>749</v>
+      </c>
+      <c r="M78" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C79">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D79" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E79" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F79" t="s">
-        <v>652</v>
-      </c>
-      <c r="K79" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>654</v>
+      </c>
+      <c r="L79" t="s">
+        <v>744</v>
+      </c>
+      <c r="M79" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C80">
         <v>1838</v>
       </c>
       <c r="D80" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E80" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F80" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="G80" t="s">
-        <v>712</v>
-      </c>
-      <c r="K80" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L80" t="s">
+        <v>745</v>
+      </c>
+      <c r="M80" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C81">
         <v>478</v>
       </c>
       <c r="D81" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E81" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F81" t="s">
-        <v>654</v>
-      </c>
-      <c r="K81" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>656</v>
+      </c>
+      <c r="L81" t="s">
+        <v>744</v>
+      </c>
+      <c r="M81" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C82">
         <v>550</v>
       </c>
       <c r="D82" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E82" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F82" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="G82" t="s">
-        <v>712</v>
-      </c>
-      <c r="K82" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L82" t="s">
+        <v>742</v>
+      </c>
+      <c r="M82" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C83">
         <v>4035</v>
       </c>
       <c r="D83" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E83" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F83" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G83" t="s">
-        <v>712</v>
-      </c>
-      <c r="K83" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L83" t="s">
+        <v>744</v>
+      </c>
+      <c r="M83" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C84">
         <v>3498</v>
       </c>
       <c r="D84" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E84" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F84" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G84" t="s">
-        <v>712</v>
-      </c>
-      <c r="K84" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L84" t="s">
+        <v>744</v>
+      </c>
+      <c r="M84" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C85">
         <v>2121</v>
       </c>
       <c r="D85" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E85" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F85" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="G85" t="s">
-        <v>713</v>
-      </c>
-      <c r="K85" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>714</v>
+      </c>
+      <c r="M85" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C86">
-        <v>1613</v>
+        <v>1693</v>
       </c>
       <c r="D86" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E86" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F86" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="G86" t="s">
-        <v>715</v>
-      </c>
-      <c r="K86" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>716</v>
+      </c>
+      <c r="L86" t="s">
+        <v>744</v>
+      </c>
+      <c r="M86" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C87">
         <v>4035</v>
       </c>
       <c r="D87" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E87" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F87" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G87" t="s">
-        <v>712</v>
-      </c>
-      <c r="K87" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L87" t="s">
+        <v>744</v>
+      </c>
+      <c r="M87" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C88">
         <v>7517</v>
       </c>
       <c r="D88" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E88" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F88" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="G88" t="s">
-        <v>712</v>
-      </c>
-      <c r="K88" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L88" t="s">
+        <v>742</v>
+      </c>
+      <c r="M88" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C89">
         <v>1838</v>
       </c>
       <c r="D89" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E89" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F89" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="G89" t="s">
-        <v>712</v>
-      </c>
-      <c r="K89" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L89" t="s">
+        <v>745</v>
+      </c>
+      <c r="M89" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C90">
         <v>2464</v>
       </c>
       <c r="D90" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E90" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F90" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G90" t="s">
-        <v>712</v>
-      </c>
-      <c r="K90" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L90" t="s">
+        <v>743</v>
+      </c>
+      <c r="M90" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C91">
         <v>600</v>
       </c>
       <c r="D91" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E91" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F91" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="G91" t="s">
-        <v>712</v>
-      </c>
-      <c r="K91" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L91" t="s">
+        <v>742</v>
+      </c>
+      <c r="M91" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C92">
         <v>4666</v>
       </c>
       <c r="D92" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E92" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F92" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G92" t="s">
-        <v>712</v>
-      </c>
-      <c r="K92" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L92" t="s">
+        <v>744</v>
+      </c>
+      <c r="M92" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C93">
         <v>2464</v>
       </c>
       <c r="D93" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E93" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F93" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G93" t="s">
-        <v>712</v>
-      </c>
-      <c r="K93" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L93" t="s">
+        <v>743</v>
+      </c>
+      <c r="M93" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B94" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C94">
         <v>2465</v>
       </c>
       <c r="D94" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E94" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F94" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="G94" t="s">
-        <v>712</v>
-      </c>
-      <c r="K94" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L94" t="s">
+        <v>743</v>
+      </c>
+      <c r="M94" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C95">
         <v>1159</v>
       </c>
       <c r="D95" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E95" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F95" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G95" t="s">
-        <v>713</v>
-      </c>
-      <c r="K95" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>714</v>
+      </c>
+      <c r="L95" t="s">
+        <v>750</v>
+      </c>
+      <c r="M95" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C96">
         <v>1260</v>
       </c>
       <c r="D96" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E96" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F96" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="G96" t="s">
-        <v>712</v>
-      </c>
-      <c r="K96" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L96" t="s">
+        <v>750</v>
+      </c>
+      <c r="M96" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C97">
         <v>860</v>
       </c>
       <c r="D97" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E97" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F97" t="s">
-        <v>662</v>
-      </c>
-      <c r="K97" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>664</v>
+      </c>
+      <c r="L97" t="s">
+        <v>749</v>
+      </c>
+      <c r="M97" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C98">
         <v>860</v>
       </c>
       <c r="D98" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E98" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F98" t="s">
-        <v>662</v>
-      </c>
-      <c r="K98" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>664</v>
+      </c>
+      <c r="L98" t="s">
+        <v>749</v>
+      </c>
+      <c r="M98" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C99">
         <v>860</v>
       </c>
       <c r="D99" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E99" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F99" t="s">
-        <v>662</v>
-      </c>
-      <c r="K99" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>664</v>
+      </c>
+      <c r="L99" t="s">
+        <v>749</v>
+      </c>
+      <c r="M99" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C100">
         <v>2318</v>
       </c>
       <c r="D100" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E100" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F100" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="G100" t="s">
-        <v>712</v>
-      </c>
-      <c r="K100" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L100" t="s">
+        <v>742</v>
+      </c>
+      <c r="M100" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C101">
         <v>2318</v>
       </c>
       <c r="D101" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E101" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F101" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="G101" t="s">
-        <v>712</v>
-      </c>
-      <c r="K101" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L101" t="s">
+        <v>742</v>
+      </c>
+      <c r="M101" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C102">
         <v>556</v>
       </c>
       <c r="D102" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E102" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F102" t="s">
-        <v>664</v>
-      </c>
-      <c r="K102" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>666</v>
+      </c>
+      <c r="L102" t="s">
+        <v>749</v>
+      </c>
+      <c r="M102" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C103">
         <v>556</v>
       </c>
       <c r="D103" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E103" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F103" t="s">
-        <v>664</v>
-      </c>
-      <c r="K103" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>666</v>
+      </c>
+      <c r="L103" t="s">
+        <v>749</v>
+      </c>
+      <c r="M103" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B104" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C104">
         <v>860</v>
       </c>
       <c r="D104" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E104" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F104" t="s">
-        <v>662</v>
-      </c>
-      <c r="K104" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>664</v>
+      </c>
+      <c r="L104" t="s">
+        <v>749</v>
+      </c>
+      <c r="M104" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C105">
         <v>860</v>
       </c>
       <c r="D105" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E105" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F105" t="s">
-        <v>662</v>
-      </c>
-      <c r="K105" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>664</v>
+      </c>
+      <c r="L105" t="s">
+        <v>749</v>
+      </c>
+      <c r="M105" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C106">
         <v>556</v>
       </c>
       <c r="D106" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E106" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F106" t="s">
-        <v>664</v>
-      </c>
-      <c r="K106" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>666</v>
+      </c>
+      <c r="L106" t="s">
+        <v>749</v>
+      </c>
+      <c r="M106" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C107">
         <v>556</v>
       </c>
       <c r="D107" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E107" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F107" t="s">
-        <v>664</v>
-      </c>
-      <c r="K107" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>666</v>
+      </c>
+      <c r="L107" t="s">
+        <v>749</v>
+      </c>
+      <c r="M107" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C108">
         <v>2578</v>
       </c>
       <c r="D108" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E108" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F108" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="G108" t="s">
-        <v>712</v>
-      </c>
-      <c r="K108" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L108" t="s">
+        <v>749</v>
+      </c>
+      <c r="M108" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B109" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C109">
         <v>4215</v>
       </c>
       <c r="D109" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E109" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F109" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G109" t="s">
-        <v>712</v>
-      </c>
-      <c r="K109" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L109" t="s">
+        <v>749</v>
+      </c>
+      <c r="M109" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B110" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C110">
         <v>4215</v>
       </c>
       <c r="D110" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E110" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F110" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G110" t="s">
-        <v>712</v>
-      </c>
-      <c r="K110" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L110" t="s">
+        <v>749</v>
+      </c>
+      <c r="M110" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C111">
         <v>4215</v>
       </c>
       <c r="D111" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E111" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F111" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G111" t="s">
-        <v>712</v>
-      </c>
-      <c r="K111" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L111" t="s">
+        <v>749</v>
+      </c>
+      <c r="M111" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C112">
         <v>996</v>
       </c>
       <c r="D112" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E112" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F112" t="s">
-        <v>665</v>
-      </c>
-      <c r="K112" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>667</v>
+      </c>
+      <c r="L112" t="s">
+        <v>749</v>
+      </c>
+      <c r="M112" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B113" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C113">
         <v>1838</v>
       </c>
       <c r="D113" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E113" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F113" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="G113" t="s">
-        <v>713</v>
-      </c>
-      <c r="K113" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+        <v>714</v>
+      </c>
+      <c r="L113" t="s">
+        <v>745</v>
+      </c>
+      <c r="M113" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C114">
         <v>753</v>
       </c>
       <c r="D114" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E114" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F114" t="s">
-        <v>666</v>
-      </c>
-      <c r="K114" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+        <v>668</v>
+      </c>
+      <c r="L114" t="s">
+        <v>749</v>
+      </c>
+      <c r="M114" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C115">
         <v>1660</v>
       </c>
       <c r="D115" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E115" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F115" t="s">
-        <v>667</v>
-      </c>
-      <c r="K115" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>669</v>
+      </c>
+      <c r="L115" t="s">
+        <v>749</v>
+      </c>
+      <c r="M115" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B116" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C116">
-        <v>531</v>
+        <v>612</v>
       </c>
       <c r="D116" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E116" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F116" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="G116" t="s">
+        <v>715</v>
+      </c>
+      <c r="L116" t="s">
+        <v>744</v>
+      </c>
+      <c r="M116" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117" t="s">
+        <v>325</v>
+      </c>
+      <c r="C117">
+        <v>558</v>
+      </c>
+      <c r="D117" t="s">
+        <v>522</v>
+      </c>
+      <c r="E117" t="s">
+        <v>604</v>
+      </c>
+      <c r="F117" t="s">
+        <v>671</v>
+      </c>
+      <c r="G117" t="s">
         <v>714</v>
       </c>
-      <c r="K116" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117" t="s">
-        <v>126</v>
-      </c>
-      <c r="B117" t="s">
-        <v>323</v>
-      </c>
-      <c r="C117">
-        <v>531</v>
-      </c>
-      <c r="D117" t="s">
-        <v>520</v>
-      </c>
-      <c r="E117" t="s">
-        <v>602</v>
-      </c>
-      <c r="F117" t="s">
-        <v>668</v>
-      </c>
-      <c r="G117" t="s">
-        <v>713</v>
-      </c>
-      <c r="K117" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="L117" t="s">
+        <v>744</v>
+      </c>
+      <c r="M117" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C118">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="D118" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E118" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F118" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="G118" t="s">
-        <v>712</v>
-      </c>
-      <c r="K118" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L118" t="s">
+        <v>744</v>
+      </c>
+      <c r="M118" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C119">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="D119" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E119" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F119" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="G119" t="s">
-        <v>712</v>
-      </c>
-      <c r="K119" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L119" t="s">
+        <v>744</v>
+      </c>
+      <c r="M119" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B120" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C120">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="D120" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E120" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F120" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="G120" t="s">
-        <v>712</v>
-      </c>
-      <c r="K120" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L120" t="s">
+        <v>744</v>
+      </c>
+      <c r="M120" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C121">
         <v>208</v>
       </c>
       <c r="D121" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E121" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F121" t="s">
-        <v>669</v>
-      </c>
-      <c r="K121" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+        <v>672</v>
+      </c>
+      <c r="L121" t="s">
+        <v>749</v>
+      </c>
+      <c r="M121" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C122">
         <v>208</v>
       </c>
       <c r="D122" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E122" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F122" t="s">
-        <v>669</v>
-      </c>
-      <c r="K122" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+        <v>672</v>
+      </c>
+      <c r="L122" t="s">
+        <v>749</v>
+      </c>
+      <c r="M122" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C123">
         <v>470</v>
       </c>
       <c r="D123" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E123" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F123" t="s">
-        <v>670</v>
-      </c>
-      <c r="K123" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+        <v>673</v>
+      </c>
+      <c r="L123" t="s">
+        <v>749</v>
+      </c>
+      <c r="M123" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C124">
         <v>736</v>
       </c>
       <c r="D124" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E124" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F124" t="s">
-        <v>671</v>
-      </c>
-      <c r="K124" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+        <v>674</v>
+      </c>
+      <c r="L124" t="s">
+        <v>749</v>
+      </c>
+      <c r="M124" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C125">
         <v>513</v>
       </c>
       <c r="D125" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E125" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F125" t="s">
-        <v>672</v>
-      </c>
-      <c r="K125" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>675</v>
+      </c>
+      <c r="L125" t="s">
+        <v>749</v>
+      </c>
+      <c r="M125" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B126" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C126">
         <v>899</v>
       </c>
       <c r="D126" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E126" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F126" t="s">
-        <v>673</v>
-      </c>
-      <c r="K126" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+        <v>676</v>
+      </c>
+      <c r="L126" t="s">
+        <v>751</v>
+      </c>
+      <c r="M126" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B127" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C127">
         <v>2578</v>
       </c>
       <c r="D127" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E127" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F127" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="G127" t="s">
-        <v>712</v>
-      </c>
-      <c r="K127" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L127" t="s">
+        <v>749</v>
+      </c>
+      <c r="M127" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C128">
         <v>2578</v>
       </c>
       <c r="D128" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E128" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F128" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="G128" t="s">
-        <v>712</v>
-      </c>
-      <c r="K128" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L128" t="s">
+        <v>749</v>
+      </c>
+      <c r="M128" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B129" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C129">
         <v>1495</v>
       </c>
       <c r="D129" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E129" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F129" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="G129" t="s">
+        <v>715</v>
+      </c>
+      <c r="L129" t="s">
+        <v>749</v>
+      </c>
+      <c r="M129" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" t="s">
+        <v>141</v>
+      </c>
+      <c r="B130" t="s">
+        <v>338</v>
+      </c>
+      <c r="C130">
+        <v>764</v>
+      </c>
+      <c r="D130" t="s">
+        <v>535</v>
+      </c>
+      <c r="E130" t="s">
+        <v>604</v>
+      </c>
+      <c r="F130" t="s">
+        <v>678</v>
+      </c>
+      <c r="G130" t="s">
+        <v>713</v>
+      </c>
+      <c r="L130" t="s">
+        <v>749</v>
+      </c>
+      <c r="M130" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" t="s">
+        <v>142</v>
+      </c>
+      <c r="B131" t="s">
+        <v>339</v>
+      </c>
+      <c r="C131">
+        <v>764</v>
+      </c>
+      <c r="D131" t="s">
+        <v>536</v>
+      </c>
+      <c r="E131" t="s">
+        <v>604</v>
+      </c>
+      <c r="F131" t="s">
+        <v>678</v>
+      </c>
+      <c r="G131" t="s">
+        <v>713</v>
+      </c>
+      <c r="L131" t="s">
+        <v>749</v>
+      </c>
+      <c r="M131" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132" t="s">
+        <v>340</v>
+      </c>
+      <c r="C132">
+        <v>569</v>
+      </c>
+      <c r="D132" t="s">
+        <v>537</v>
+      </c>
+      <c r="E132" t="s">
+        <v>604</v>
+      </c>
+      <c r="F132" t="s">
+        <v>679</v>
+      </c>
+      <c r="G132" t="s">
+        <v>715</v>
+      </c>
+      <c r="L132" t="s">
+        <v>744</v>
+      </c>
+      <c r="M132" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" t="s">
+        <v>144</v>
+      </c>
+      <c r="B133" t="s">
+        <v>341</v>
+      </c>
+      <c r="C133">
+        <v>569</v>
+      </c>
+      <c r="D133" t="s">
+        <v>538</v>
+      </c>
+      <c r="E133" t="s">
+        <v>604</v>
+      </c>
+      <c r="F133" t="s">
+        <v>679</v>
+      </c>
+      <c r="G133" t="s">
         <v>714</v>
       </c>
-      <c r="K129" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130" t="s">
-        <v>139</v>
-      </c>
-      <c r="B130" t="s">
-        <v>336</v>
-      </c>
-      <c r="C130">
-        <v>748</v>
-      </c>
-      <c r="D130" t="s">
-        <v>533</v>
-      </c>
-      <c r="E130" t="s">
-        <v>602</v>
-      </c>
-      <c r="F130" t="s">
-        <v>675</v>
-      </c>
-      <c r="G130" t="s">
-        <v>712</v>
-      </c>
-      <c r="K130" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131" t="s">
-        <v>140</v>
-      </c>
-      <c r="B131" t="s">
-        <v>337</v>
-      </c>
-      <c r="C131">
-        <v>748</v>
-      </c>
-      <c r="D131" t="s">
-        <v>534</v>
-      </c>
-      <c r="E131" t="s">
-        <v>602</v>
-      </c>
-      <c r="F131" t="s">
-        <v>675</v>
-      </c>
-      <c r="G131" t="s">
-        <v>712</v>
-      </c>
-      <c r="K131" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132" t="s">
-        <v>141</v>
-      </c>
-      <c r="B132" t="s">
-        <v>338</v>
-      </c>
-      <c r="C132">
-        <v>553</v>
-      </c>
-      <c r="D132" t="s">
-        <v>535</v>
-      </c>
-      <c r="E132" t="s">
-        <v>602</v>
-      </c>
-      <c r="F132" t="s">
-        <v>676</v>
-      </c>
-      <c r="G132" t="s">
-        <v>714</v>
-      </c>
-      <c r="K132" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133" t="s">
-        <v>142</v>
-      </c>
-      <c r="B133" t="s">
-        <v>339</v>
-      </c>
-      <c r="C133">
-        <v>553</v>
-      </c>
-      <c r="D133" t="s">
-        <v>536</v>
-      </c>
-      <c r="E133" t="s">
-        <v>602</v>
-      </c>
-      <c r="F133" t="s">
-        <v>676</v>
-      </c>
-      <c r="G133" t="s">
-        <v>713</v>
-      </c>
-      <c r="K133" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="L133" t="s">
+        <v>744</v>
+      </c>
+      <c r="M133" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B134" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C134">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="D134" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E134" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F134" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="G134" t="s">
-        <v>712</v>
-      </c>
-      <c r="K134" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L134" t="s">
+        <v>744</v>
+      </c>
+      <c r="M134" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B135" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C135">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="D135" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E135" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F135" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="G135" t="s">
-        <v>712</v>
-      </c>
-      <c r="K135" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L135" t="s">
+        <v>744</v>
+      </c>
+      <c r="M135" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B136" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C136">
         <v>426</v>
       </c>
       <c r="D136" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E136" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F136" t="s">
-        <v>677</v>
-      </c>
-      <c r="K136" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+        <v>680</v>
+      </c>
+      <c r="L136" t="s">
+        <v>749</v>
+      </c>
+      <c r="M136" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B137" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C137">
         <v>204</v>
       </c>
       <c r="D137" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E137" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F137" t="s">
-        <v>678</v>
-      </c>
-      <c r="K137" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+        <v>681</v>
+      </c>
+      <c r="L137" t="s">
+        <v>749</v>
+      </c>
+      <c r="M137" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B138" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C138">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="D138" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E138" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F138" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G138" t="s">
-        <v>714</v>
-      </c>
-      <c r="K138" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+        <v>715</v>
+      </c>
+      <c r="L138" t="s">
+        <v>745</v>
+      </c>
+      <c r="M138" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B139" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C139">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="D139" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E139" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F139" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G139" t="s">
-        <v>712</v>
-      </c>
-      <c r="K139" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L139" t="s">
+        <v>745</v>
+      </c>
+      <c r="M139" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B140" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C140">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="D140" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E140" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F140" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G140" t="s">
-        <v>712</v>
-      </c>
-      <c r="K140" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L140" t="s">
+        <v>745</v>
+      </c>
+      <c r="M140" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B141" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C141">
         <v>922</v>
       </c>
       <c r="D141" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E141" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F141" t="s">
-        <v>679</v>
-      </c>
-      <c r="K141" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+        <v>682</v>
+      </c>
+      <c r="L141" t="s">
+        <v>749</v>
+      </c>
+      <c r="M141" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B142" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C142">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="D142" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E142" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F142" t="s">
-        <v>680</v>
-      </c>
-      <c r="K142" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+        <v>683</v>
+      </c>
+      <c r="L142" t="s">
+        <v>752</v>
+      </c>
+      <c r="M142" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B143" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C143">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="D143" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E143" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F143" t="s">
-        <v>681</v>
-      </c>
-      <c r="K143" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+        <v>684</v>
+      </c>
+      <c r="L143" t="s">
+        <v>744</v>
+      </c>
+      <c r="M143" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B144" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C144">
         <v>2274</v>
       </c>
       <c r="D144" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E144" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F144" t="s">
-        <v>682</v>
-      </c>
-      <c r="K144" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+        <v>685</v>
+      </c>
+      <c r="L144" t="s">
+        <v>744</v>
+      </c>
+      <c r="M144" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B145" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C145">
-        <v>1323</v>
+        <v>1389</v>
       </c>
       <c r="D145" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E145" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F145" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G145" t="s">
-        <v>714</v>
-      </c>
-      <c r="K145" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+        <v>715</v>
+      </c>
+      <c r="L145" t="s">
+        <v>744</v>
+      </c>
+      <c r="M145" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B146" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C146">
         <v>3421</v>
       </c>
       <c r="D146" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E146" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F146" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="G146" t="s">
-        <v>712</v>
-      </c>
-      <c r="K146" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L146" t="s">
+        <v>742</v>
+      </c>
+      <c r="M146" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B147" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C147">
         <v>2290</v>
       </c>
       <c r="D147" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E147" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F147" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="G147" t="s">
-        <v>713</v>
-      </c>
-      <c r="K147" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+        <v>714</v>
+      </c>
+      <c r="L147" t="s">
+        <v>742</v>
+      </c>
+      <c r="M147" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B148" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C148">
         <v>1795</v>
       </c>
       <c r="D148" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E148" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F148" t="s">
-        <v>685</v>
-      </c>
-      <c r="K148" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+        <v>688</v>
+      </c>
+      <c r="L148" t="s">
+        <v>742</v>
+      </c>
+      <c r="M148" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B149" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C149">
         <v>524</v>
       </c>
       <c r="D149" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E149" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F149" t="s">
-        <v>686</v>
-      </c>
-      <c r="K149" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
+        <v>689</v>
+      </c>
+      <c r="L149" t="s">
+        <v>749</v>
+      </c>
+      <c r="M149" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B150" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C150">
         <v>1057</v>
       </c>
       <c r="D150" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E150" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F150" t="s">
-        <v>687</v>
-      </c>
-      <c r="K150" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
+        <v>690</v>
+      </c>
+      <c r="L150" t="s">
+        <v>745</v>
+      </c>
+      <c r="M150" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B151" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C151">
         <v>3291</v>
       </c>
       <c r="D151" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E151" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F151" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G151" t="s">
-        <v>712</v>
-      </c>
-      <c r="K151" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L151" t="s">
+        <v>742</v>
+      </c>
+      <c r="M151" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B152" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C152">
         <v>842</v>
       </c>
       <c r="D152" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E152" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F152" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="G152" t="s">
-        <v>713</v>
-      </c>
-      <c r="K152" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
+        <v>714</v>
+      </c>
+      <c r="L152" t="s">
+        <v>745</v>
+      </c>
+      <c r="M152" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B153" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C153">
         <v>1044</v>
       </c>
       <c r="D153" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E153" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F153" t="s">
-        <v>689</v>
+        <v>645</v>
       </c>
       <c r="G153" t="s">
-        <v>714</v>
-      </c>
-      <c r="K153" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
+        <v>715</v>
+      </c>
+      <c r="L153" t="s">
+        <v>745</v>
+      </c>
+      <c r="M153" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B154" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C154">
         <v>1531</v>
       </c>
       <c r="D154" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E154" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F154" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G154" t="s">
-        <v>713</v>
-      </c>
-      <c r="K154" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
+        <v>714</v>
+      </c>
+      <c r="L154" t="s">
+        <v>743</v>
+      </c>
+      <c r="M154" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B155" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C155">
         <v>1531</v>
       </c>
       <c r="D155" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E155" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F155" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G155" t="s">
-        <v>712</v>
-      </c>
-      <c r="K155" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L155" t="s">
+        <v>743</v>
+      </c>
+      <c r="M155" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B156" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C156">
         <v>1531</v>
       </c>
       <c r="D156" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E156" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F156" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G156" t="s">
-        <v>712</v>
-      </c>
-      <c r="K156" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L156" t="s">
+        <v>743</v>
+      </c>
+      <c r="M156" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B157" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C157">
         <v>3421</v>
       </c>
       <c r="D157" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E157" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F157" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="G157" t="s">
-        <v>712</v>
-      </c>
-      <c r="K157" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L157" t="s">
+        <v>742</v>
+      </c>
+      <c r="M157" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B158" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C158">
         <v>338</v>
       </c>
       <c r="D158" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E158" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F158" t="s">
-        <v>691</v>
-      </c>
-      <c r="K158" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
+        <v>693</v>
+      </c>
+      <c r="L158" t="s">
+        <v>753</v>
+      </c>
+      <c r="M158" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B159" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C159">
         <v>1235</v>
       </c>
       <c r="D159" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E159" t="s">
-        <v>602</v>
-      </c>
-      <c r="K159" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
+        <v>604</v>
+      </c>
+      <c r="L159" t="s">
+        <v>751</v>
+      </c>
+      <c r="M159" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B160" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C160">
         <v>513</v>
       </c>
       <c r="D160" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E160" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F160" t="s">
-        <v>672</v>
-      </c>
-      <c r="K160" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
+        <v>675</v>
+      </c>
+      <c r="L160" t="s">
+        <v>749</v>
+      </c>
+      <c r="M160" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B161" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C161">
         <v>433</v>
       </c>
       <c r="D161" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E161" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F161" t="s">
-        <v>692</v>
-      </c>
-      <c r="K161" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
+        <v>694</v>
+      </c>
+      <c r="L161" t="s">
+        <v>749</v>
+      </c>
+      <c r="M161" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B162" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C162">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="D162" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E162" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F162" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="G162" t="s">
-        <v>712</v>
-      </c>
-      <c r="K162" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L162" t="s">
+        <v>749</v>
+      </c>
+      <c r="M162" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B163" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C163">
-        <v>2416</v>
+        <v>2444</v>
       </c>
       <c r="D163" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E163" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F163" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G163" t="s">
-        <v>712</v>
-      </c>
-      <c r="K163" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L163" t="s">
+        <v>745</v>
+      </c>
+      <c r="M163" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B164" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C164">
         <v>1838</v>
       </c>
       <c r="D164" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E164" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F164" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="G164" t="s">
-        <v>712</v>
-      </c>
-      <c r="K164" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L164" t="s">
+        <v>745</v>
+      </c>
+      <c r="M164" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B165" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C165">
         <v>2747</v>
       </c>
       <c r="D165" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E165" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F165" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="G165" t="s">
-        <v>712</v>
-      </c>
-      <c r="K165" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L165" t="s">
+        <v>742</v>
+      </c>
+      <c r="M165" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B166" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C166">
         <v>2647</v>
       </c>
       <c r="D166" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E166" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F166" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="G166" t="s">
-        <v>713</v>
-      </c>
-      <c r="K166" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
+        <v>714</v>
+      </c>
+      <c r="L166" t="s">
+        <v>742</v>
+      </c>
+      <c r="M166" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B167" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C167">
         <v>2380</v>
       </c>
       <c r="D167" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E167" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F167" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="G167" t="s">
-        <v>712</v>
-      </c>
-      <c r="K167" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L167" t="s">
+        <v>742</v>
+      </c>
+      <c r="M167" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B168" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C168">
         <v>5547</v>
       </c>
       <c r="D168" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E168" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F168" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G168" t="s">
-        <v>712</v>
-      </c>
-      <c r="K168" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L168" t="s">
+        <v>742</v>
+      </c>
+      <c r="M168" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B169" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C169">
         <v>1122</v>
       </c>
       <c r="D169" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E169" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F169" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="G169" t="s">
-        <v>714</v>
-      </c>
-      <c r="K169" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
+        <v>715</v>
+      </c>
+      <c r="M169" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B170" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C170">
         <v>5106</v>
       </c>
       <c r="D170" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E170" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F170" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G170" t="s">
-        <v>712</v>
-      </c>
-      <c r="K170" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L170" t="s">
+        <v>742</v>
+      </c>
+      <c r="M170" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B171" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C171">
         <v>5221</v>
       </c>
       <c r="D171" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E171" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F171" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="G171" t="s">
-        <v>712</v>
-      </c>
-      <c r="K171" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L171" t="s">
+        <v>742</v>
+      </c>
+      <c r="M171" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B172" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C172">
         <v>5221</v>
       </c>
       <c r="D172" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E172" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F172" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="G172" t="s">
-        <v>712</v>
-      </c>
-      <c r="K172" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L172" t="s">
+        <v>742</v>
+      </c>
+      <c r="M172" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B173" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C173">
         <v>2318</v>
       </c>
       <c r="D173" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E173" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F173" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="G173" t="s">
-        <v>712</v>
-      </c>
-      <c r="K173" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L173" t="s">
+        <v>742</v>
+      </c>
+      <c r="M173" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B174" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C174">
         <v>1418</v>
       </c>
       <c r="D174" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E174" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F174" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G174" t="s">
-        <v>712</v>
-      </c>
-      <c r="K174" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L174" t="s">
+        <v>744</v>
+      </c>
+      <c r="M174" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B175" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C175">
         <v>2380</v>
       </c>
       <c r="D175" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E175" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F175" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="G175" t="s">
-        <v>712</v>
-      </c>
-      <c r="K175" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L175" t="s">
+        <v>742</v>
+      </c>
+      <c r="M175" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B176" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C176">
         <v>2747</v>
       </c>
       <c r="D176" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E176" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F176" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="G176" t="s">
-        <v>712</v>
-      </c>
-      <c r="K176" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L176" t="s">
+        <v>742</v>
+      </c>
+      <c r="M176" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B177" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C177">
         <v>5425</v>
       </c>
       <c r="D177" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E177" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F177" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="G177" t="s">
-        <v>712</v>
-      </c>
-      <c r="K177" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L177" t="s">
+        <v>742</v>
+      </c>
+      <c r="M177" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B178" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C178">
         <v>2444</v>
       </c>
       <c r="D178" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E178" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F178" t="s">
-        <v>700</v>
+        <v>616</v>
       </c>
       <c r="G178" t="s">
-        <v>712</v>
-      </c>
-      <c r="K178" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L178" t="s">
+        <v>744</v>
+      </c>
+      <c r="M178" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B179" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C179">
         <v>3616</v>
       </c>
       <c r="D179" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E179" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F179" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G179" t="s">
-        <v>712</v>
-      </c>
-      <c r="K179" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L179" t="s">
+        <v>742</v>
+      </c>
+      <c r="M179" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B180" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C180">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="D180" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E180" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F180" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G180" t="s">
-        <v>713</v>
-      </c>
-      <c r="K180" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
+        <v>714</v>
+      </c>
+      <c r="L180" t="s">
+        <v>745</v>
+      </c>
+      <c r="M180" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B181" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C181">
         <v>179</v>
       </c>
       <c r="D181" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E181" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F181" t="s">
-        <v>702</v>
-      </c>
-      <c r="K181" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
+        <v>703</v>
+      </c>
+      <c r="M181" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
       <c r="A182" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B182" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C182">
         <v>2444</v>
       </c>
       <c r="D182" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E182" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F182" t="s">
-        <v>700</v>
+        <v>616</v>
       </c>
       <c r="G182" t="s">
-        <v>712</v>
-      </c>
-      <c r="K182" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L182" t="s">
+        <v>744</v>
+      </c>
+      <c r="M182" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13">
       <c r="A183" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B183" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C183">
         <v>2405</v>
       </c>
       <c r="D183" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E183" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F183" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G183" t="s">
-        <v>713</v>
-      </c>
-      <c r="K183" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
+        <v>714</v>
+      </c>
+      <c r="L183" t="s">
+        <v>744</v>
+      </c>
+      <c r="M183" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
       <c r="A184" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B184" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C184">
         <v>2477</v>
       </c>
       <c r="D184" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E184" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F184" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G184" t="s">
-        <v>713</v>
-      </c>
-      <c r="K184" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
+        <v>714</v>
+      </c>
+      <c r="L184" t="s">
+        <v>743</v>
+      </c>
+      <c r="M184" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13">
       <c r="A185" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B185" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C185">
         <v>2477</v>
       </c>
       <c r="D185" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E185" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F185" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G185" t="s">
-        <v>712</v>
-      </c>
-      <c r="K185" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L185" t="s">
+        <v>743</v>
+      </c>
+      <c r="M185" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13">
       <c r="A186" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B186" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C186">
         <v>2477</v>
       </c>
       <c r="D186" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E186" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F186" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G186" t="s">
-        <v>712</v>
-      </c>
-      <c r="K186" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L186" t="s">
+        <v>743</v>
+      </c>
+      <c r="M186" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
       <c r="A187" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B187" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C187">
         <v>2477</v>
       </c>
       <c r="D187" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E187" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F187" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G187" t="s">
-        <v>712</v>
-      </c>
-      <c r="K187" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L187" t="s">
+        <v>743</v>
+      </c>
+      <c r="M187" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
       <c r="A188" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B188" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C188">
         <v>1531</v>
       </c>
       <c r="D188" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E188" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F188" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G188" t="s">
-        <v>712</v>
-      </c>
-      <c r="K188" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11">
+        <v>713</v>
+      </c>
+      <c r="L188" t="s">
+        <v>743</v>
+      </c>
+      <c r="M188" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
       <c r="A189" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B189" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C189">
         <v>4698</v>
       </c>
       <c r="D189" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E189" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F189" t="s">
-        <v>609</v>
-      </c>
-      <c r="K189" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11">
+        <v>611</v>
+      </c>
+      <c r="L189" t="s">
+        <v>742</v>
+      </c>
+      <c r="M189" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13">
       <c r="A190" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B190" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C190">
         <v>2668</v>
       </c>
       <c r="D190" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E190" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F190" t="s">
-        <v>705</v>
-      </c>
-      <c r="K190" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
+        <v>706</v>
+      </c>
+      <c r="L190" t="s">
+        <v>742</v>
+      </c>
+      <c r="M190" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13">
       <c r="A191" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B191" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C191">
         <v>4794</v>
       </c>
       <c r="D191" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E191" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F191" t="s">
-        <v>706</v>
-      </c>
-      <c r="K191" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
+        <v>707</v>
+      </c>
+      <c r="L191" t="s">
+        <v>742</v>
+      </c>
+      <c r="M191" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13">
       <c r="A192" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B192" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C192">
         <v>897</v>
       </c>
       <c r="D192" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E192" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F192" t="s">
-        <v>707</v>
-      </c>
-      <c r="K192" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
+        <v>708</v>
+      </c>
+      <c r="L192" t="s">
+        <v>742</v>
+      </c>
+      <c r="M192" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13">
       <c r="A193" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B193" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C193">
         <v>2881</v>
       </c>
       <c r="D193" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E193" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F193" t="s">
-        <v>708</v>
-      </c>
-      <c r="K193" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
+        <v>709</v>
+      </c>
+      <c r="L193" t="s">
+        <v>742</v>
+      </c>
+      <c r="M193" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13">
       <c r="A194" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B194" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C194">
         <v>3577</v>
       </c>
       <c r="D194" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E194" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F194" t="s">
-        <v>683</v>
-      </c>
-      <c r="K194" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
+        <v>686</v>
+      </c>
+      <c r="L194" t="s">
+        <v>742</v>
+      </c>
+      <c r="M194" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13">
       <c r="A195" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B195" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C195">
         <v>3172</v>
       </c>
       <c r="D195" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E195" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F195" t="s">
-        <v>709</v>
-      </c>
-      <c r="K195" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11">
+        <v>710</v>
+      </c>
+      <c r="L195" t="s">
+        <v>745</v>
+      </c>
+      <c r="M195" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13">
       <c r="A196" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B196" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C196">
         <v>3172</v>
       </c>
       <c r="D196" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E196" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F196" t="s">
-        <v>709</v>
-      </c>
-      <c r="K196" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11">
+        <v>710</v>
+      </c>
+      <c r="L196" t="s">
+        <v>745</v>
+      </c>
+      <c r="M196" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13">
       <c r="A197" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B197" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C197">
         <v>2892</v>
       </c>
       <c r="D197" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E197" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F197" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G197" t="s">
-        <v>711</v>
-      </c>
-      <c r="K197" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
+        <v>712</v>
+      </c>
+      <c r="L197" t="s">
+        <v>742</v>
+      </c>
+      <c r="M197" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13">
       <c r="A198" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B198" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C198">
         <v>5221</v>
       </c>
       <c r="D198" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E198" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F198" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="G198" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H198" t="s">
-        <v>740</v>
-      </c>
-      <c r="K198" t="s">
-        <v>937</v>
+        <v>741</v>
+      </c>
+      <c r="L198" t="s">
+        <v>742</v>
+      </c>
+      <c r="M198" t="s">
+        <v>950</v>
       </c>
     </row>
   </sheetData>

--- a/data/procesados/procesadosCanal/drimel.xlsx
+++ b/data/procesados/procesadosCanal/drimel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="957">
   <si>
     <t>Identificador de URL</t>
   </si>
@@ -1840,61 +1840,64 @@
     <t>706.00</t>
   </si>
   <si>
-    <t>1,497.00</t>
+    <t>1,571.00</t>
   </si>
   <si>
     <t>1,911.00</t>
   </si>
   <si>
+    <t>3,084.00</t>
+  </si>
+  <si>
+    <t>4,195.00</t>
+  </si>
+  <si>
+    <t>1,865.00</t>
+  </si>
+  <si>
+    <t>1,777.00</t>
+  </si>
+  <si>
+    <t>1,923.00</t>
+  </si>
+  <si>
     <t>2,938.00</t>
   </si>
   <si>
-    <t>4,195.00</t>
-  </si>
-  <si>
-    <t>1,692.00</t>
-  </si>
-  <si>
-    <t>1,777.00</t>
-  </si>
-  <si>
-    <t>1,923.00</t>
-  </si>
-  <si>
-    <t>1,581.00</t>
-  </si>
-  <si>
-    <t>2,182.00</t>
-  </si>
-  <si>
-    <t>3,015.00</t>
-  </si>
-  <si>
-    <t>3,176.00</t>
-  </si>
-  <si>
-    <t>582.00</t>
-  </si>
-  <si>
-    <t>2,668.00</t>
-  </si>
-  <si>
-    <t>542.00</t>
+    <t>1,617.00</t>
+  </si>
+  <si>
+    <t>2,218.00</t>
+  </si>
+  <si>
+    <t>3,105.00</t>
+  </si>
+  <si>
+    <t>3,229.00</t>
+  </si>
+  <si>
+    <t>664.00</t>
+  </si>
+  <si>
+    <t>2,755.00</t>
+  </si>
+  <si>
+    <t>635.00</t>
   </si>
   <si>
     <t>266.00</t>
   </si>
   <si>
-    <t>1,131.00</t>
-  </si>
-  <si>
-    <t>4,166.00</t>
+    <t>1,412.00</t>
+  </si>
+  <si>
+    <t>4,375.00</t>
   </si>
   <si>
     <t>2,200.00</t>
   </si>
   <si>
-    <t>3,123.00</t>
+    <t>3,239.00</t>
   </si>
   <si>
     <t>1,694.00</t>
@@ -1903,16 +1906,16 @@
     <t>2,494.00</t>
   </si>
   <si>
-    <t>3,603.00</t>
+    <t>3,784.00</t>
   </si>
   <si>
     <t>1,085.00</t>
   </si>
   <si>
-    <t>388.00</t>
-  </si>
-  <si>
-    <t>684.00</t>
+    <t>475.00</t>
+  </si>
+  <si>
+    <t>837.00</t>
   </si>
   <si>
     <t>1,184.00</t>
@@ -1933,177 +1936,174 @@
     <t>1,967.00</t>
   </si>
   <si>
+    <t>526.00</t>
+  </si>
+  <si>
+    <t>1,450.00</t>
+  </si>
+  <si>
+    <t>1,899.00</t>
+  </si>
+  <si>
+    <t>3,186.00</t>
+  </si>
+  <si>
+    <t>3,994.00</t>
+  </si>
+  <si>
+    <t>889.00</t>
+  </si>
+  <si>
+    <t>1,020.00</t>
+  </si>
+  <si>
+    <t>931.00</t>
+  </si>
+  <si>
     <t>501.00</t>
   </si>
   <si>
-    <t>1,450.00</t>
+    <t>2,444.00</t>
+  </si>
+  <si>
+    <t>429.00</t>
+  </si>
+  <si>
+    <t>407.00</t>
+  </si>
+  <si>
+    <t>371.00</t>
+  </si>
+  <si>
+    <t>562.00</t>
+  </si>
+  <si>
+    <t>3,865.00</t>
+  </si>
+  <si>
+    <t>2,403.00</t>
+  </si>
+  <si>
+    <t>197.00</t>
+  </si>
+  <si>
+    <t>1,663.00</t>
+  </si>
+  <si>
+    <t>398.00</t>
   </si>
   <si>
     <t>1,844.00</t>
   </si>
   <si>
-    <t>3,034.00</t>
-  </si>
-  <si>
-    <t>3,804.00</t>
-  </si>
-  <si>
-    <t>760.00</t>
+    <t>1,512.00</t>
+  </si>
+  <si>
+    <t>7,048.00</t>
+  </si>
+  <si>
+    <t>2,054.00</t>
+  </si>
+  <si>
+    <t>1,035.00</t>
+  </si>
+  <si>
+    <t>1,170.00</t>
+  </si>
+  <si>
+    <t>842.00</t>
+  </si>
+  <si>
+    <t>2,110.00</t>
+  </si>
+  <si>
+    <t>2,070.00</t>
+  </si>
+  <si>
+    <t>544.00</t>
+  </si>
+  <si>
+    <t>976.00</t>
+  </si>
+  <si>
+    <t>738.00</t>
+  </si>
+  <si>
+    <t>1,627.00</t>
+  </si>
+  <si>
+    <t>546.00</t>
+  </si>
+  <si>
+    <t>508.00</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>461.00</t>
+  </si>
+  <si>
+    <t>446.00</t>
+  </si>
+  <si>
+    <t>782.00</t>
+  </si>
+  <si>
+    <t>1,448.00</t>
+  </si>
+  <si>
+    <t>682.00</t>
+  </si>
+  <si>
+    <t>417.00</t>
+  </si>
+  <si>
+    <t>903.00</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>559.00</t>
+  </si>
+  <si>
+    <t>2,120.00</t>
+  </si>
+  <si>
+    <t>3,110.00</t>
+  </si>
+  <si>
+    <t>1,561.00</t>
+  </si>
+  <si>
+    <t>535.00</t>
+  </si>
+  <si>
+    <t>919.00</t>
+  </si>
+  <si>
+    <t>702.00</t>
   </si>
   <si>
     <t>932.00</t>
   </si>
   <si>
-    <t>745.00</t>
-  </si>
-  <si>
-    <t>2,125.00</t>
-  </si>
-  <si>
-    <t>429.00</t>
-  </si>
-  <si>
-    <t>407.00</t>
-  </si>
-  <si>
-    <t>328.00</t>
-  </si>
-  <si>
-    <t>510.00</t>
-  </si>
-  <si>
-    <t>3,763.00</t>
+    <t>1,399.00</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>443.00</t>
+  </si>
+  <si>
+    <t>2,822.00</t>
   </si>
   <si>
     <t>2,302.00</t>
   </si>
   <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>1,598.00</t>
-  </si>
-  <si>
-    <t>398.00</t>
-  </si>
-  <si>
-    <t>478.00</t>
-  </si>
-  <si>
-    <t>1,512.00</t>
-  </si>
-  <si>
-    <t>6,712.00</t>
-  </si>
-  <si>
-    <t>536.00</t>
-  </si>
-  <si>
-    <t>2,054.00</t>
-  </si>
-  <si>
-    <t>1,035.00</t>
-  </si>
-  <si>
-    <t>1,125.00</t>
-  </si>
-  <si>
-    <t>768.00</t>
-  </si>
-  <si>
-    <t>2,070.00</t>
-  </si>
-  <si>
-    <t>496.00</t>
-  </si>
-  <si>
-    <t>889.00</t>
-  </si>
-  <si>
-    <t>672.00</t>
-  </si>
-  <si>
-    <t>1,482.00</t>
-  </si>
-  <si>
-    <t>546.00</t>
-  </si>
-  <si>
-    <t>498.00</t>
-  </si>
-  <si>
-    <t>186.00</t>
-  </si>
-  <si>
-    <t>420.00</t>
-  </si>
-  <si>
-    <t>640.00</t>
-  </si>
-  <si>
-    <t>446.00</t>
-  </si>
-  <si>
-    <t>782.00</t>
-  </si>
-  <si>
-    <t>1,335.00</t>
-  </si>
-  <si>
-    <t>682.00</t>
-  </si>
-  <si>
-    <t>508.00</t>
-  </si>
-  <si>
-    <t>380.00</t>
-  </si>
-  <si>
-    <t>177.00</t>
-  </si>
-  <si>
-    <t>823.00</t>
-  </si>
-  <si>
-    <t>229.00</t>
-  </si>
-  <si>
-    <t>463.00</t>
-  </si>
-  <si>
-    <t>2,030.00</t>
-  </si>
-  <si>
-    <t>3,110.00</t>
-  </si>
-  <si>
-    <t>1,908.00</t>
-  </si>
-  <si>
-    <t>1,561.00</t>
-  </si>
-  <si>
-    <t>437.00</t>
-  </si>
-  <si>
-    <t>919.00</t>
-  </si>
-  <si>
-    <t>702.00</t>
-  </si>
-  <si>
-    <t>1,367.00</t>
-  </si>
-  <si>
-    <t>294.00</t>
-  </si>
-  <si>
-    <t>387.00</t>
-  </si>
-  <si>
-    <t>2,453.00</t>
-  </si>
-  <si>
     <t>4,953.00</t>
   </si>
   <si>
@@ -2122,6 +2122,9 @@
     <t>4,717.00</t>
   </si>
   <si>
+    <t>2,291.00</t>
+  </si>
+  <si>
     <t>3,144.00</t>
   </si>
   <si>
@@ -2131,15 +2134,15 @@
     <t>2,091.00</t>
   </si>
   <si>
-    <t>2,212.00</t>
+    <t>2,263.00</t>
+  </si>
+  <si>
+    <t>4,405.00</t>
   </si>
   <si>
     <t>2,382.00</t>
   </si>
   <si>
-    <t>3,995.00</t>
-  </si>
-  <si>
     <t>780.00</t>
   </si>
   <si>
@@ -2152,6 +2155,9 @@
     <t>2,410.00</t>
   </si>
   <si>
+    <t>4,895.00</t>
+  </si>
+  <si>
     <t>Bebés y Maternidad &gt; Pañales &gt; Recien Nacido</t>
   </si>
   <si>
@@ -2251,28 +2257,40 @@
     <t>Huggies</t>
   </si>
   <si>
+    <t>Algabo Baby</t>
+  </si>
+  <si>
+    <t>Upa</t>
+  </si>
+  <si>
+    <t>Disney</t>
+  </si>
+  <si>
+    <t>Doncella</t>
+  </si>
+  <si>
+    <t>Kimbies</t>
+  </si>
+  <si>
+    <t>Estrella</t>
+  </si>
+  <si>
+    <t>Caricia</t>
+  </si>
+  <si>
+    <t>Algabo</t>
+  </si>
+  <si>
+    <t>Johnsons</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>Princesas</t>
+  </si>
+  <si>
     <t>Babysec</t>
-  </si>
-  <si>
-    <t>Upa</t>
-  </si>
-  <si>
-    <t>Doncella</t>
-  </si>
-  <si>
-    <t>Kimbies</t>
-  </si>
-  <si>
-    <t>Estrella</t>
-  </si>
-  <si>
-    <t>Caricia</t>
-  </si>
-  <si>
-    <t>Johnsons</t>
-  </si>
-  <si>
-    <t>Candy</t>
   </si>
   <si>
     <t>Deyse</t>
@@ -3291,16 +3309,16 @@
         <v>605</v>
       </c>
       <c r="G2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="L2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M2" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3323,16 +3341,16 @@
         <v>606</v>
       </c>
       <c r="G3" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H3" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="L3" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M3" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3355,16 +3373,16 @@
         <v>607</v>
       </c>
       <c r="G4" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H4" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="L4" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M4" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3375,7 +3393,7 @@
         <v>213</v>
       </c>
       <c r="C5">
-        <v>1677</v>
+        <v>1760</v>
       </c>
       <c r="D5" t="s">
         <v>410</v>
@@ -3387,16 +3405,16 @@
         <v>608</v>
       </c>
       <c r="G5" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H5" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="L5" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M5" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3419,16 +3437,16 @@
         <v>609</v>
       </c>
       <c r="G6" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H6" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="L6" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M6" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3439,7 +3457,7 @@
         <v>215</v>
       </c>
       <c r="C7">
-        <v>3291</v>
+        <v>3454</v>
       </c>
       <c r="D7" t="s">
         <v>412</v>
@@ -3451,16 +3469,16 @@
         <v>610</v>
       </c>
       <c r="G7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H7" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="L7" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M7" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3483,16 +3501,16 @@
         <v>611</v>
       </c>
       <c r="G8" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H8" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="L8" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M8" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3503,7 +3521,7 @@
         <v>217</v>
       </c>
       <c r="C9">
-        <v>1946</v>
+        <v>2089</v>
       </c>
       <c r="D9" t="s">
         <v>414</v>
@@ -3515,16 +3533,16 @@
         <v>612</v>
       </c>
       <c r="G9" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H9" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="L9" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M9" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3547,16 +3565,16 @@
         <v>613</v>
       </c>
       <c r="G10" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H10" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="L10" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M10" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3579,16 +3597,16 @@
         <v>614</v>
       </c>
       <c r="G11" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H11" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="L11" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M11" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3608,19 +3626,19 @@
         <v>604</v>
       </c>
       <c r="F12" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="G12" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H12" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="L12" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M12" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3631,7 +3649,7 @@
         <v>221</v>
       </c>
       <c r="C13">
-        <v>1771</v>
+        <v>1811</v>
       </c>
       <c r="D13" t="s">
         <v>418</v>
@@ -3640,19 +3658,19 @@
         <v>604</v>
       </c>
       <c r="F13" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G13" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H13" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="L13" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M13" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -3663,7 +3681,7 @@
         <v>222</v>
       </c>
       <c r="C14">
-        <v>2444</v>
+        <v>2484</v>
       </c>
       <c r="D14" t="s">
         <v>419</v>
@@ -3672,19 +3690,19 @@
         <v>604</v>
       </c>
       <c r="F14" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G14" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H14" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="L14" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M14" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -3707,16 +3725,16 @@
         <v>611</v>
       </c>
       <c r="G15" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H15" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="L15" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M15" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -3727,7 +3745,7 @@
         <v>224</v>
       </c>
       <c r="C16">
-        <v>3467</v>
+        <v>3478</v>
       </c>
       <c r="D16" t="s">
         <v>421</v>
@@ -3736,16 +3754,16 @@
         <v>604</v>
       </c>
       <c r="F16" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G16" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H16" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="M16" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -3756,7 +3774,7 @@
         <v>225</v>
       </c>
       <c r="C17">
-        <v>3467</v>
+        <v>3478</v>
       </c>
       <c r="D17" t="s">
         <v>422</v>
@@ -3765,16 +3783,16 @@
         <v>604</v>
       </c>
       <c r="F17" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G17" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H17" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="M17" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -3785,7 +3803,7 @@
         <v>226</v>
       </c>
       <c r="C18">
-        <v>3557</v>
+        <v>3616</v>
       </c>
       <c r="D18" t="s">
         <v>423</v>
@@ -3794,19 +3812,19 @@
         <v>604</v>
       </c>
       <c r="F18" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G18" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H18" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="L18" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M18" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -3817,7 +3835,7 @@
         <v>227</v>
       </c>
       <c r="C19">
-        <v>3557</v>
+        <v>3616</v>
       </c>
       <c r="D19" t="s">
         <v>424</v>
@@ -3826,19 +3844,19 @@
         <v>604</v>
       </c>
       <c r="F19" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G19" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H19" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="L19" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M19" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -3849,7 +3867,7 @@
         <v>228</v>
       </c>
       <c r="C20">
-        <v>3557</v>
+        <v>3616</v>
       </c>
       <c r="D20" t="s">
         <v>425</v>
@@ -3858,19 +3876,19 @@
         <v>604</v>
       </c>
       <c r="F20" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G20" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H20" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="L20" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M20" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -3881,7 +3899,7 @@
         <v>229</v>
       </c>
       <c r="C21">
-        <v>652</v>
+        <v>744</v>
       </c>
       <c r="D21" t="s">
         <v>426</v>
@@ -3890,13 +3908,13 @@
         <v>604</v>
       </c>
       <c r="F21" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L21" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M21" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -3907,7 +3925,7 @@
         <v>230</v>
       </c>
       <c r="C22">
-        <v>2988</v>
+        <v>3086</v>
       </c>
       <c r="D22" t="s">
         <v>427</v>
@@ -3916,19 +3934,19 @@
         <v>604</v>
       </c>
       <c r="F22" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G22" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H22" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L22" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M22" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -3939,7 +3957,7 @@
         <v>231</v>
       </c>
       <c r="C23">
-        <v>2988</v>
+        <v>3086</v>
       </c>
       <c r="D23" t="s">
         <v>428</v>
@@ -3948,19 +3966,19 @@
         <v>604</v>
       </c>
       <c r="F23" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G23" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H23" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="L23" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M23" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -3971,7 +3989,7 @@
         <v>232</v>
       </c>
       <c r="C24">
-        <v>2988</v>
+        <v>3086</v>
       </c>
       <c r="D24" t="s">
         <v>429</v>
@@ -3980,19 +3998,19 @@
         <v>604</v>
       </c>
       <c r="F24" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G24" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H24" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="L24" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M24" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -4003,7 +4021,7 @@
         <v>233</v>
       </c>
       <c r="C25">
-        <v>2988</v>
+        <v>3086</v>
       </c>
       <c r="D25" t="s">
         <v>430</v>
@@ -4012,19 +4030,19 @@
         <v>604</v>
       </c>
       <c r="F25" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H25" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="L25" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M25" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -4035,7 +4053,7 @@
         <v>234</v>
       </c>
       <c r="C26">
-        <v>607</v>
+        <v>711</v>
       </c>
       <c r="D26" t="s">
         <v>431</v>
@@ -4044,13 +4062,13 @@
         <v>604</v>
       </c>
       <c r="F26" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L26" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M26" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -4070,13 +4088,13 @@
         <v>604</v>
       </c>
       <c r="F27" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L27" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="M27" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -4087,7 +4105,7 @@
         <v>236</v>
       </c>
       <c r="C28">
-        <v>1267</v>
+        <v>1581</v>
       </c>
       <c r="D28" t="s">
         <v>433</v>
@@ -4096,19 +4114,19 @@
         <v>604</v>
       </c>
       <c r="F28" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G28" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H28" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="L28" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M28" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -4119,7 +4137,7 @@
         <v>237</v>
       </c>
       <c r="C29">
-        <v>4666</v>
+        <v>4900</v>
       </c>
       <c r="D29" t="s">
         <v>434</v>
@@ -4128,16 +4146,16 @@
         <v>604</v>
       </c>
       <c r="F29" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G29" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L29" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M29" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -4148,7 +4166,7 @@
         <v>238</v>
       </c>
       <c r="C30">
-        <v>4666</v>
+        <v>4900</v>
       </c>
       <c r="D30" t="s">
         <v>435</v>
@@ -4157,16 +4175,16 @@
         <v>604</v>
       </c>
       <c r="F30" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G30" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L30" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M30" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -4177,7 +4195,7 @@
         <v>239</v>
       </c>
       <c r="C31">
-        <v>4666</v>
+        <v>4900</v>
       </c>
       <c r="D31" t="s">
         <v>436</v>
@@ -4186,16 +4204,16 @@
         <v>604</v>
       </c>
       <c r="F31" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G31" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L31" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M31" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -4206,7 +4224,7 @@
         <v>240</v>
       </c>
       <c r="C32">
-        <v>4666</v>
+        <v>4900</v>
       </c>
       <c r="D32" t="s">
         <v>437</v>
@@ -4215,16 +4233,16 @@
         <v>604</v>
       </c>
       <c r="F32" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G32" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L32" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M32" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -4244,16 +4262,16 @@
         <v>604</v>
       </c>
       <c r="F33" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G33" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L33" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M33" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -4264,7 +4282,7 @@
         <v>242</v>
       </c>
       <c r="C34">
-        <v>3498</v>
+        <v>3628</v>
       </c>
       <c r="D34" t="s">
         <v>439</v>
@@ -4273,16 +4291,16 @@
         <v>604</v>
       </c>
       <c r="F34" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G34" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L34" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M34" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -4293,7 +4311,7 @@
         <v>243</v>
       </c>
       <c r="C35">
-        <v>3498</v>
+        <v>3628</v>
       </c>
       <c r="D35" t="s">
         <v>440</v>
@@ -4302,16 +4320,16 @@
         <v>604</v>
       </c>
       <c r="F35" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G35" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L35" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M35" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -4322,7 +4340,7 @@
         <v>244</v>
       </c>
       <c r="C36">
-        <v>3498</v>
+        <v>3628</v>
       </c>
       <c r="D36" t="s">
         <v>441</v>
@@ -4331,16 +4349,16 @@
         <v>604</v>
       </c>
       <c r="F36" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G36" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L36" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M36" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -4351,7 +4369,7 @@
         <v>245</v>
       </c>
       <c r="C37">
-        <v>3498</v>
+        <v>3628</v>
       </c>
       <c r="D37" t="s">
         <v>442</v>
@@ -4360,16 +4378,16 @@
         <v>604</v>
       </c>
       <c r="F37" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G37" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L37" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M37" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -4389,13 +4407,13 @@
         <v>604</v>
       </c>
       <c r="F38" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L38" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M38" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -4415,16 +4433,16 @@
         <v>604</v>
       </c>
       <c r="F39" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G39" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="L39" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M39" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -4435,7 +4453,7 @@
         <v>248</v>
       </c>
       <c r="C40">
-        <v>4035</v>
+        <v>4238</v>
       </c>
       <c r="D40" t="s">
         <v>445</v>
@@ -4444,16 +4462,16 @@
         <v>604</v>
       </c>
       <c r="F40" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G40" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L40" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M40" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -4473,16 +4491,16 @@
         <v>604</v>
       </c>
       <c r="F41" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G41" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="L41" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M41" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -4493,7 +4511,7 @@
         <v>250</v>
       </c>
       <c r="C42">
-        <v>435</v>
+        <v>532</v>
       </c>
       <c r="D42" t="s">
         <v>447</v>
@@ -4502,13 +4520,13 @@
         <v>604</v>
       </c>
       <c r="F42" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L42" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M42" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -4519,7 +4537,7 @@
         <v>251</v>
       </c>
       <c r="C43">
-        <v>766</v>
+        <v>937</v>
       </c>
       <c r="D43" t="s">
         <v>448</v>
@@ -4528,13 +4546,13 @@
         <v>604</v>
       </c>
       <c r="F43" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="L43" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M43" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -4554,16 +4572,16 @@
         <v>604</v>
       </c>
       <c r="F44" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G44" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="L44" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M44" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -4583,16 +4601,16 @@
         <v>604</v>
       </c>
       <c r="F45" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G45" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="L45" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M45" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -4612,16 +4630,16 @@
         <v>604</v>
       </c>
       <c r="F46" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G46" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="L46" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M46" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -4641,16 +4659,16 @@
         <v>604</v>
       </c>
       <c r="F47" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G47" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="L47" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M47" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -4670,16 +4688,16 @@
         <v>604</v>
       </c>
       <c r="F48" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G48" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="L48" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M48" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -4690,7 +4708,7 @@
         <v>257</v>
       </c>
       <c r="C49">
-        <v>4035</v>
+        <v>4238</v>
       </c>
       <c r="D49" t="s">
         <v>454</v>
@@ -4699,16 +4717,16 @@
         <v>604</v>
       </c>
       <c r="F49" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G49" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L49" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M49" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -4719,7 +4737,7 @@
         <v>258</v>
       </c>
       <c r="C50">
-        <v>4035</v>
+        <v>4238</v>
       </c>
       <c r="D50" t="s">
         <v>455</v>
@@ -4728,16 +4746,16 @@
         <v>604</v>
       </c>
       <c r="F50" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G50" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L50" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M50" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -4757,16 +4775,16 @@
         <v>604</v>
       </c>
       <c r="F51" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G51" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="L51" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M51" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -4786,16 +4804,16 @@
         <v>604</v>
       </c>
       <c r="F52" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G52" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="L52" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M52" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -4806,7 +4824,7 @@
         <v>261</v>
       </c>
       <c r="C53">
-        <v>561</v>
+        <v>589</v>
       </c>
       <c r="D53" t="s">
         <v>458</v>
@@ -4815,16 +4833,16 @@
         <v>604</v>
       </c>
       <c r="F53" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G53" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L53" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M53" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -4844,13 +4862,13 @@
         <v>604</v>
       </c>
       <c r="F54" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L54" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M54" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -4861,7 +4879,7 @@
         <v>263</v>
       </c>
       <c r="C55">
-        <v>2121</v>
+        <v>2127</v>
       </c>
       <c r="D55" t="s">
         <v>460</v>
@@ -4870,13 +4888,13 @@
         <v>604</v>
       </c>
       <c r="F55" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G55" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="M55" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -4887,7 +4905,7 @@
         <v>264</v>
       </c>
       <c r="C56">
-        <v>2121</v>
+        <v>2127</v>
       </c>
       <c r="D56" t="s">
         <v>461</v>
@@ -4896,13 +4914,13 @@
         <v>604</v>
       </c>
       <c r="F56" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G56" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="M56" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -4913,7 +4931,7 @@
         <v>265</v>
       </c>
       <c r="C57">
-        <v>3398</v>
+        <v>3568</v>
       </c>
       <c r="D57" t="s">
         <v>462</v>
@@ -4922,16 +4940,16 @@
         <v>604</v>
       </c>
       <c r="F57" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G57" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L57" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M57" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -4942,7 +4960,7 @@
         <v>266</v>
       </c>
       <c r="C58">
-        <v>3398</v>
+        <v>3568</v>
       </c>
       <c r="D58" t="s">
         <v>463</v>
@@ -4951,16 +4969,16 @@
         <v>604</v>
       </c>
       <c r="F58" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G58" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L58" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M58" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -4971,7 +4989,7 @@
         <v>267</v>
       </c>
       <c r="C59">
-        <v>3398</v>
+        <v>3568</v>
       </c>
       <c r="D59" t="s">
         <v>464</v>
@@ -4980,16 +4998,16 @@
         <v>604</v>
       </c>
       <c r="F59" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G59" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L59" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M59" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -5000,7 +5018,7 @@
         <v>268</v>
       </c>
       <c r="C60">
-        <v>4260</v>
+        <v>4473</v>
       </c>
       <c r="D60" t="s">
         <v>465</v>
@@ -5009,16 +5027,16 @@
         <v>604</v>
       </c>
       <c r="F60" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G60" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L60" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M60" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -5029,7 +5047,7 @@
         <v>269</v>
       </c>
       <c r="C61">
-        <v>851</v>
+        <v>996</v>
       </c>
       <c r="D61" t="s">
         <v>466</v>
@@ -5038,13 +5056,13 @@
         <v>604</v>
       </c>
       <c r="F61" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L61" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="M61" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -5055,7 +5073,7 @@
         <v>270</v>
       </c>
       <c r="C62">
-        <v>3398</v>
+        <v>3568</v>
       </c>
       <c r="D62" t="s">
         <v>467</v>
@@ -5064,16 +5082,16 @@
         <v>604</v>
       </c>
       <c r="F62" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G62" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L62" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M62" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -5084,7 +5102,7 @@
         <v>271</v>
       </c>
       <c r="C63">
-        <v>1044</v>
+        <v>1142</v>
       </c>
       <c r="D63" t="s">
         <v>468</v>
@@ -5093,13 +5111,13 @@
         <v>604</v>
       </c>
       <c r="F63" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L63" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M63" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -5110,7 +5128,7 @@
         <v>272</v>
       </c>
       <c r="C64">
-        <v>834</v>
+        <v>1043</v>
       </c>
       <c r="D64" t="s">
         <v>469</v>
@@ -5119,16 +5137,16 @@
         <v>604</v>
       </c>
       <c r="F64" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G64" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="L64" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M64" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -5148,16 +5166,16 @@
         <v>604</v>
       </c>
       <c r="F65" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="G65" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L65" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M65" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -5168,7 +5186,7 @@
         <v>274</v>
       </c>
       <c r="C66">
-        <v>2380</v>
+        <v>2737</v>
       </c>
       <c r="D66" t="s">
         <v>471</v>
@@ -5177,16 +5195,16 @@
         <v>604</v>
       </c>
       <c r="F66" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="G66" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L66" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M66" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -5206,16 +5224,16 @@
         <v>604</v>
       </c>
       <c r="F67" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G67" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L67" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M67" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -5235,13 +5253,13 @@
         <v>604</v>
       </c>
       <c r="F68" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="L68" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="M68" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -5252,7 +5270,7 @@
         <v>277</v>
       </c>
       <c r="C69">
-        <v>2444</v>
+        <v>2484</v>
       </c>
       <c r="D69" t="s">
         <v>474</v>
@@ -5261,16 +5279,16 @@
         <v>604</v>
       </c>
       <c r="F69" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G69" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L69" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M69" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -5281,7 +5299,7 @@
         <v>278</v>
       </c>
       <c r="C70">
-        <v>2444</v>
+        <v>2484</v>
       </c>
       <c r="D70" t="s">
         <v>475</v>
@@ -5290,16 +5308,16 @@
         <v>604</v>
       </c>
       <c r="F70" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G70" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L70" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M70" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -5310,7 +5328,7 @@
         <v>279</v>
       </c>
       <c r="C71">
-        <v>561</v>
+        <v>589</v>
       </c>
       <c r="D71" t="s">
         <v>476</v>
@@ -5319,16 +5337,16 @@
         <v>604</v>
       </c>
       <c r="F71" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G71" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L71" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M71" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -5339,7 +5357,7 @@
         <v>280</v>
       </c>
       <c r="C72">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="D72" t="s">
         <v>477</v>
@@ -5348,13 +5366,13 @@
         <v>604</v>
       </c>
       <c r="F72" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="L72" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="M72" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -5365,7 +5383,7 @@
         <v>281</v>
       </c>
       <c r="C73">
-        <v>3467</v>
+        <v>3478</v>
       </c>
       <c r="D73" t="s">
         <v>478</v>
@@ -5374,10 +5392,10 @@
         <v>604</v>
       </c>
       <c r="F73" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M73" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -5397,16 +5415,16 @@
         <v>604</v>
       </c>
       <c r="F74" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G74" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="L74" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M74" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -5417,7 +5435,7 @@
         <v>283</v>
       </c>
       <c r="C75">
-        <v>587</v>
+        <v>629</v>
       </c>
       <c r="D75" t="s">
         <v>480</v>
@@ -5426,16 +5444,16 @@
         <v>604</v>
       </c>
       <c r="F75" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="G75" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L75" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M75" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -5446,7 +5464,7 @@
         <v>284</v>
       </c>
       <c r="C76">
-        <v>561</v>
+        <v>589</v>
       </c>
       <c r="D76" t="s">
         <v>481</v>
@@ -5455,16 +5473,16 @@
         <v>604</v>
       </c>
       <c r="F76" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G76" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="L76" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M76" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -5475,7 +5493,7 @@
         <v>285</v>
       </c>
       <c r="C77">
-        <v>4215</v>
+        <v>4329</v>
       </c>
       <c r="D77" t="s">
         <v>482</v>
@@ -5484,13 +5502,13 @@
         <v>604</v>
       </c>
       <c r="F77" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="L77" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M77" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -5501,7 +5519,7 @@
         <v>286</v>
       </c>
       <c r="C78">
-        <v>2578</v>
+        <v>2691</v>
       </c>
       <c r="D78" t="s">
         <v>483</v>
@@ -5510,16 +5528,16 @@
         <v>604</v>
       </c>
       <c r="F78" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="G78" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L78" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M78" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -5530,7 +5548,7 @@
         <v>287</v>
       </c>
       <c r="C79">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D79" t="s">
         <v>484</v>
@@ -5539,13 +5557,13 @@
         <v>604</v>
       </c>
       <c r="F79" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="L79" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M79" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -5556,7 +5574,7 @@
         <v>288</v>
       </c>
       <c r="C80">
-        <v>1838</v>
+        <v>1863</v>
       </c>
       <c r="D80" t="s">
         <v>485</v>
@@ -5565,16 +5583,16 @@
         <v>604</v>
       </c>
       <c r="F80" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="G80" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L80" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M80" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -5594,13 +5612,13 @@
         <v>604</v>
       </c>
       <c r="F81" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="L81" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M81" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -5611,7 +5629,7 @@
         <v>290</v>
       </c>
       <c r="C82">
-        <v>550</v>
+        <v>589</v>
       </c>
       <c r="D82" t="s">
         <v>487</v>
@@ -5620,16 +5638,16 @@
         <v>604</v>
       </c>
       <c r="F82" t="s">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="G82" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L82" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M82" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -5640,7 +5658,7 @@
         <v>291</v>
       </c>
       <c r="C83">
-        <v>4035</v>
+        <v>4238</v>
       </c>
       <c r="D83" t="s">
         <v>488</v>
@@ -5649,16 +5667,16 @@
         <v>604</v>
       </c>
       <c r="F83" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G83" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L83" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M83" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -5669,7 +5687,7 @@
         <v>292</v>
       </c>
       <c r="C84">
-        <v>3498</v>
+        <v>3628</v>
       </c>
       <c r="D84" t="s">
         <v>489</v>
@@ -5678,16 +5696,16 @@
         <v>604</v>
       </c>
       <c r="F84" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G84" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L84" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M84" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -5707,13 +5725,13 @@
         <v>604</v>
       </c>
       <c r="F85" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="G85" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="M85" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -5733,16 +5751,16 @@
         <v>604</v>
       </c>
       <c r="F86" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="G86" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="L86" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M86" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -5753,7 +5771,7 @@
         <v>295</v>
       </c>
       <c r="C87">
-        <v>4035</v>
+        <v>4238</v>
       </c>
       <c r="D87" t="s">
         <v>492</v>
@@ -5762,16 +5780,16 @@
         <v>604</v>
       </c>
       <c r="F87" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G87" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L87" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M87" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -5782,7 +5800,7 @@
         <v>296</v>
       </c>
       <c r="C88">
-        <v>7517</v>
+        <v>7894</v>
       </c>
       <c r="D88" t="s">
         <v>493</v>
@@ -5791,16 +5809,16 @@
         <v>604</v>
       </c>
       <c r="F88" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="G88" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L88" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M88" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -5811,7 +5829,7 @@
         <v>297</v>
       </c>
       <c r="C89">
-        <v>1838</v>
+        <v>1863</v>
       </c>
       <c r="D89" t="s">
         <v>494</v>
@@ -5820,16 +5838,16 @@
         <v>604</v>
       </c>
       <c r="F89" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="G89" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L89" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M89" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -5849,16 +5867,16 @@
         <v>604</v>
       </c>
       <c r="F90" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G90" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L90" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M90" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -5869,7 +5887,7 @@
         <v>299</v>
       </c>
       <c r="C91">
-        <v>600</v>
+        <v>629</v>
       </c>
       <c r="D91" t="s">
         <v>496</v>
@@ -5878,16 +5896,16 @@
         <v>604</v>
       </c>
       <c r="F91" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="G91" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L91" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M91" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -5898,7 +5916,7 @@
         <v>300</v>
       </c>
       <c r="C92">
-        <v>4666</v>
+        <v>4900</v>
       </c>
       <c r="D92" t="s">
         <v>497</v>
@@ -5907,16 +5925,16 @@
         <v>604</v>
       </c>
       <c r="F92" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G92" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L92" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M92" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -5936,16 +5954,16 @@
         <v>604</v>
       </c>
       <c r="F93" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G93" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L93" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M93" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -5965,16 +5983,16 @@
         <v>604</v>
       </c>
       <c r="F94" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G94" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L94" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M94" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -5994,16 +6012,16 @@
         <v>604</v>
       </c>
       <c r="F95" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G95" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L95" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="M95" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -6014,7 +6032,7 @@
         <v>304</v>
       </c>
       <c r="C96">
-        <v>1260</v>
+        <v>1310</v>
       </c>
       <c r="D96" t="s">
         <v>501</v>
@@ -6023,16 +6041,16 @@
         <v>604</v>
       </c>
       <c r="F96" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G96" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L96" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="M96" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -6043,7 +6061,7 @@
         <v>305</v>
       </c>
       <c r="C97">
-        <v>860</v>
+        <v>943</v>
       </c>
       <c r="D97" t="s">
         <v>502</v>
@@ -6052,13 +6070,13 @@
         <v>604</v>
       </c>
       <c r="F97" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L97" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M97" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -6069,7 +6087,7 @@
         <v>306</v>
       </c>
       <c r="C98">
-        <v>860</v>
+        <v>943</v>
       </c>
       <c r="D98" t="s">
         <v>503</v>
@@ -6078,13 +6096,13 @@
         <v>604</v>
       </c>
       <c r="F98" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L98" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M98" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -6095,7 +6113,7 @@
         <v>307</v>
       </c>
       <c r="C99">
-        <v>860</v>
+        <v>943</v>
       </c>
       <c r="D99" t="s">
         <v>504</v>
@@ -6104,13 +6122,13 @@
         <v>604</v>
       </c>
       <c r="F99" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L99" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M99" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -6121,7 +6139,7 @@
         <v>308</v>
       </c>
       <c r="C100">
-        <v>2318</v>
+        <v>2363</v>
       </c>
       <c r="D100" t="s">
         <v>505</v>
@@ -6130,16 +6148,16 @@
         <v>604</v>
       </c>
       <c r="F100" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G100" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L100" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M100" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -6159,16 +6177,16 @@
         <v>604</v>
       </c>
       <c r="F101" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="G101" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L101" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M101" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -6179,7 +6197,7 @@
         <v>310</v>
       </c>
       <c r="C102">
-        <v>556</v>
+        <v>609</v>
       </c>
       <c r="D102" t="s">
         <v>507</v>
@@ -6188,13 +6206,13 @@
         <v>604</v>
       </c>
       <c r="F102" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="L102" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M102" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -6205,7 +6223,7 @@
         <v>311</v>
       </c>
       <c r="C103">
-        <v>556</v>
+        <v>609</v>
       </c>
       <c r="D103" t="s">
         <v>508</v>
@@ -6214,13 +6232,13 @@
         <v>604</v>
       </c>
       <c r="F103" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="L103" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M103" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -6231,7 +6249,7 @@
         <v>312</v>
       </c>
       <c r="C104">
-        <v>860</v>
+        <v>943</v>
       </c>
       <c r="D104" t="s">
         <v>509</v>
@@ -6240,13 +6258,13 @@
         <v>604</v>
       </c>
       <c r="F104" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L104" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M104" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -6257,7 +6275,7 @@
         <v>313</v>
       </c>
       <c r="C105">
-        <v>860</v>
+        <v>943</v>
       </c>
       <c r="D105" t="s">
         <v>510</v>
@@ -6266,13 +6284,13 @@
         <v>604</v>
       </c>
       <c r="F105" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L105" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M105" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -6283,7 +6301,7 @@
         <v>314</v>
       </c>
       <c r="C106">
-        <v>556</v>
+        <v>609</v>
       </c>
       <c r="D106" t="s">
         <v>511</v>
@@ -6292,13 +6310,13 @@
         <v>604</v>
       </c>
       <c r="F106" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="L106" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M106" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -6309,7 +6327,7 @@
         <v>315</v>
       </c>
       <c r="C107">
-        <v>556</v>
+        <v>609</v>
       </c>
       <c r="D107" t="s">
         <v>512</v>
@@ -6318,13 +6336,13 @@
         <v>604</v>
       </c>
       <c r="F107" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="L107" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M107" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -6335,7 +6353,7 @@
         <v>316</v>
       </c>
       <c r="C108">
-        <v>2578</v>
+        <v>2691</v>
       </c>
       <c r="D108" t="s">
         <v>513</v>
@@ -6344,16 +6362,16 @@
         <v>604</v>
       </c>
       <c r="F108" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="G108" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L108" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M108" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -6364,7 +6382,7 @@
         <v>317</v>
       </c>
       <c r="C109">
-        <v>4215</v>
+        <v>4329</v>
       </c>
       <c r="D109" t="s">
         <v>514</v>
@@ -6373,16 +6391,16 @@
         <v>604</v>
       </c>
       <c r="F109" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G109" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L109" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M109" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -6393,7 +6411,7 @@
         <v>318</v>
       </c>
       <c r="C110">
-        <v>4215</v>
+        <v>4329</v>
       </c>
       <c r="D110" t="s">
         <v>515</v>
@@ -6402,16 +6420,16 @@
         <v>604</v>
       </c>
       <c r="F110" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G110" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L110" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M110" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -6422,7 +6440,7 @@
         <v>319</v>
       </c>
       <c r="C111">
-        <v>4215</v>
+        <v>4329</v>
       </c>
       <c r="D111" t="s">
         <v>516</v>
@@ -6431,16 +6449,16 @@
         <v>604</v>
       </c>
       <c r="F111" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G111" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L111" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M111" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -6451,7 +6469,7 @@
         <v>320</v>
       </c>
       <c r="C112">
-        <v>996</v>
+        <v>1093</v>
       </c>
       <c r="D112" t="s">
         <v>517</v>
@@ -6460,13 +6478,13 @@
         <v>604</v>
       </c>
       <c r="F112" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="L112" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M112" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -6477,7 +6495,7 @@
         <v>321</v>
       </c>
       <c r="C113">
-        <v>1838</v>
+        <v>1863</v>
       </c>
       <c r="D113" t="s">
         <v>518</v>
@@ -6486,16 +6504,16 @@
         <v>604</v>
       </c>
       <c r="F113" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="G113" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L113" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M113" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -6506,7 +6524,7 @@
         <v>322</v>
       </c>
       <c r="C114">
-        <v>753</v>
+        <v>827</v>
       </c>
       <c r="D114" t="s">
         <v>519</v>
@@ -6515,13 +6533,13 @@
         <v>604</v>
       </c>
       <c r="F114" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L114" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M114" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -6532,7 +6550,7 @@
         <v>323</v>
       </c>
       <c r="C115">
-        <v>1660</v>
+        <v>1822</v>
       </c>
       <c r="D115" t="s">
         <v>520</v>
@@ -6541,13 +6559,13 @@
         <v>604</v>
       </c>
       <c r="F115" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="L115" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="M115" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -6567,16 +6585,16 @@
         <v>604</v>
       </c>
       <c r="F116" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="G116" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="L116" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M116" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -6587,7 +6605,7 @@
         <v>325</v>
       </c>
       <c r="C117">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="D117" t="s">
         <v>522</v>
@@ -6596,16 +6614,16 @@
         <v>604</v>
       </c>
       <c r="F117" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G117" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L117" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M117" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -6616,7 +6634,7 @@
         <v>326</v>
       </c>
       <c r="C118">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="D118" t="s">
         <v>523</v>
@@ -6625,16 +6643,16 @@
         <v>604</v>
       </c>
       <c r="F118" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G118" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L118" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M118" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -6645,7 +6663,7 @@
         <v>327</v>
       </c>
       <c r="C119">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="D119" t="s">
         <v>524</v>
@@ -6654,16 +6672,16 @@
         <v>604</v>
       </c>
       <c r="F119" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G119" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L119" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M119" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -6674,7 +6692,7 @@
         <v>328</v>
       </c>
       <c r="C120">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="D120" t="s">
         <v>525</v>
@@ -6683,16 +6701,16 @@
         <v>604</v>
       </c>
       <c r="F120" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G120" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L120" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M120" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -6703,7 +6721,7 @@
         <v>329</v>
       </c>
       <c r="C121">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="D121" t="s">
         <v>526</v>
@@ -6712,13 +6730,13 @@
         <v>604</v>
       </c>
       <c r="F121" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="L121" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="M121" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -6729,7 +6747,7 @@
         <v>330</v>
       </c>
       <c r="C122">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="D122" t="s">
         <v>527</v>
@@ -6738,13 +6756,13 @@
         <v>604</v>
       </c>
       <c r="F122" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="L122" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="M122" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -6755,7 +6773,7 @@
         <v>331</v>
       </c>
       <c r="C123">
-        <v>470</v>
+        <v>516</v>
       </c>
       <c r="D123" t="s">
         <v>528</v>
@@ -6764,13 +6782,13 @@
         <v>604</v>
       </c>
       <c r="F123" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="L123" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M123" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -6781,7 +6799,7 @@
         <v>332</v>
       </c>
       <c r="C124">
-        <v>736</v>
+        <v>827</v>
       </c>
       <c r="D124" t="s">
         <v>529</v>
@@ -6790,13 +6808,13 @@
         <v>604</v>
       </c>
       <c r="F124" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="L124" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M124" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -6816,13 +6834,13 @@
         <v>604</v>
       </c>
       <c r="F125" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="L125" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M125" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -6842,13 +6860,13 @@
         <v>604</v>
       </c>
       <c r="F126" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L126" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="M126" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6859,7 +6877,7 @@
         <v>335</v>
       </c>
       <c r="C127">
-        <v>2578</v>
+        <v>2691</v>
       </c>
       <c r="D127" t="s">
         <v>532</v>
@@ -6868,16 +6886,16 @@
         <v>604</v>
       </c>
       <c r="F127" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="G127" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L127" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M127" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6888,7 +6906,7 @@
         <v>336</v>
       </c>
       <c r="C128">
-        <v>2578</v>
+        <v>2691</v>
       </c>
       <c r="D128" t="s">
         <v>533</v>
@@ -6897,16 +6915,16 @@
         <v>604</v>
       </c>
       <c r="F128" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="G128" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L128" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M128" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6917,7 +6935,7 @@
         <v>337</v>
       </c>
       <c r="C129">
-        <v>1495</v>
+        <v>1622</v>
       </c>
       <c r="D129" t="s">
         <v>534</v>
@@ -6926,16 +6944,16 @@
         <v>604</v>
       </c>
       <c r="F129" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G129" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="L129" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M129" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6955,16 +6973,16 @@
         <v>604</v>
       </c>
       <c r="F130" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G130" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L130" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M130" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6984,16 +7002,16 @@
         <v>604</v>
       </c>
       <c r="F131" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G131" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L131" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M131" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -7013,16 +7031,16 @@
         <v>604</v>
       </c>
       <c r="F132" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="G132" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="L132" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M132" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -7042,16 +7060,16 @@
         <v>604</v>
       </c>
       <c r="F133" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="G133" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L133" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M133" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -7071,16 +7089,16 @@
         <v>604</v>
       </c>
       <c r="F134" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="G134" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L134" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M134" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -7100,16 +7118,16 @@
         <v>604</v>
       </c>
       <c r="F135" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="G135" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L135" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M135" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -7120,7 +7138,7 @@
         <v>344</v>
       </c>
       <c r="C136">
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="D136" t="s">
         <v>541</v>
@@ -7132,10 +7150,10 @@
         <v>680</v>
       </c>
       <c r="L136" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M136" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -7146,7 +7164,7 @@
         <v>345</v>
       </c>
       <c r="C137">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="D137" t="s">
         <v>542</v>
@@ -7155,13 +7173,13 @@
         <v>604</v>
       </c>
       <c r="F137" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="L137" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M137" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -7181,16 +7199,16 @@
         <v>604</v>
       </c>
       <c r="F138" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G138" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="L138" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M138" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -7210,16 +7228,16 @@
         <v>604</v>
       </c>
       <c r="F139" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G139" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L139" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M139" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -7239,16 +7257,16 @@
         <v>604</v>
       </c>
       <c r="F140" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G140" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L140" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M140" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -7259,7 +7277,7 @@
         <v>349</v>
       </c>
       <c r="C141">
-        <v>922</v>
+        <v>1011</v>
       </c>
       <c r="D141" t="s">
         <v>546</v>
@@ -7268,13 +7286,13 @@
         <v>604</v>
       </c>
       <c r="F141" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L141" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M141" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -7294,13 +7312,13 @@
         <v>604</v>
       </c>
       <c r="F142" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L142" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="M142" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -7311,7 +7329,7 @@
         <v>351</v>
       </c>
       <c r="C143">
-        <v>519</v>
+        <v>626</v>
       </c>
       <c r="D143" t="s">
         <v>548</v>
@@ -7320,13 +7338,13 @@
         <v>604</v>
       </c>
       <c r="F143" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L143" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
       <c r="M143" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -7337,7 +7355,7 @@
         <v>352</v>
       </c>
       <c r="C144">
-        <v>2274</v>
+        <v>2374</v>
       </c>
       <c r="D144" t="s">
         <v>549</v>
@@ -7346,13 +7364,13 @@
         <v>604</v>
       </c>
       <c r="F144" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L144" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M144" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -7372,16 +7390,16 @@
         <v>604</v>
       </c>
       <c r="F145" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G145" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="L145" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M145" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -7401,16 +7419,16 @@
         <v>604</v>
       </c>
       <c r="F146" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G146" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L146" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M146" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -7421,7 +7439,7 @@
         <v>355</v>
       </c>
       <c r="C147">
-        <v>2290</v>
+        <v>2318</v>
       </c>
       <c r="D147" t="s">
         <v>552</v>
@@ -7430,16 +7448,16 @@
         <v>604</v>
       </c>
       <c r="F147" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="G147" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L147" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M147" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -7459,13 +7477,13 @@
         <v>604</v>
       </c>
       <c r="F148" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L148" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M148" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -7476,7 +7494,7 @@
         <v>357</v>
       </c>
       <c r="C149">
-        <v>524</v>
+        <v>599</v>
       </c>
       <c r="D149" t="s">
         <v>554</v>
@@ -7485,13 +7503,13 @@
         <v>604</v>
       </c>
       <c r="F149" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L149" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M149" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -7511,13 +7529,13 @@
         <v>604</v>
       </c>
       <c r="F150" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L150" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="M150" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -7528,7 +7546,7 @@
         <v>359</v>
       </c>
       <c r="C151">
-        <v>3291</v>
+        <v>3454</v>
       </c>
       <c r="D151" t="s">
         <v>556</v>
@@ -7540,13 +7558,13 @@
         <v>610</v>
       </c>
       <c r="G151" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L151" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M151" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -7566,16 +7584,16 @@
         <v>604</v>
       </c>
       <c r="F152" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G152" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L152" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="M152" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -7595,16 +7613,16 @@
         <v>604</v>
       </c>
       <c r="F153" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
       <c r="G153" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="L153" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="M153" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7615,7 +7633,7 @@
         <v>362</v>
       </c>
       <c r="C154">
-        <v>1531</v>
+        <v>1567</v>
       </c>
       <c r="D154" t="s">
         <v>559</v>
@@ -7624,16 +7642,16 @@
         <v>604</v>
       </c>
       <c r="F154" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G154" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L154" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M154" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7644,7 +7662,7 @@
         <v>363</v>
       </c>
       <c r="C155">
-        <v>1531</v>
+        <v>1567</v>
       </c>
       <c r="D155" t="s">
         <v>560</v>
@@ -7653,16 +7671,16 @@
         <v>604</v>
       </c>
       <c r="F155" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G155" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L155" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M155" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7673,7 +7691,7 @@
         <v>364</v>
       </c>
       <c r="C156">
-        <v>1531</v>
+        <v>1567</v>
       </c>
       <c r="D156" t="s">
         <v>561</v>
@@ -7682,16 +7700,16 @@
         <v>604</v>
       </c>
       <c r="F156" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G156" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L156" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M156" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7711,16 +7729,16 @@
         <v>604</v>
       </c>
       <c r="F157" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G157" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L157" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M157" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7740,13 +7758,13 @@
         <v>604</v>
       </c>
       <c r="F158" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L158" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="M158" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7766,10 +7784,10 @@
         <v>604</v>
       </c>
       <c r="L159" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="M159" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7780,7 +7798,7 @@
         <v>368</v>
       </c>
       <c r="C160">
-        <v>513</v>
+        <v>599</v>
       </c>
       <c r="D160" t="s">
         <v>565</v>
@@ -7789,13 +7807,13 @@
         <v>604</v>
       </c>
       <c r="F160" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="L160" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M160" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7806,7 +7824,7 @@
         <v>369</v>
       </c>
       <c r="C161">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="D161" t="s">
         <v>566</v>
@@ -7815,13 +7833,13 @@
         <v>604</v>
       </c>
       <c r="F161" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L161" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M161" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7841,16 +7859,16 @@
         <v>604</v>
       </c>
       <c r="F162" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G162" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L162" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M162" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7861,7 +7879,7 @@
         <v>371</v>
       </c>
       <c r="C163">
-        <v>2444</v>
+        <v>2484</v>
       </c>
       <c r="D163" t="s">
         <v>568</v>
@@ -7870,16 +7888,16 @@
         <v>604</v>
       </c>
       <c r="F163" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G163" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L163" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M163" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7890,7 +7908,7 @@
         <v>372</v>
       </c>
       <c r="C164">
-        <v>1838</v>
+        <v>1863</v>
       </c>
       <c r="D164" t="s">
         <v>569</v>
@@ -7899,16 +7917,16 @@
         <v>604</v>
       </c>
       <c r="F164" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="G164" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L164" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M164" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7919,7 +7937,7 @@
         <v>373</v>
       </c>
       <c r="C165">
-        <v>2747</v>
+        <v>3161</v>
       </c>
       <c r="D165" t="s">
         <v>570</v>
@@ -7928,16 +7946,16 @@
         <v>604</v>
       </c>
       <c r="F165" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G165" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L165" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M165" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7957,16 +7975,16 @@
         <v>604</v>
       </c>
       <c r="F166" t="s">
-        <v>653</v>
+        <v>695</v>
       </c>
       <c r="G166" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L166" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M166" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7977,7 +7995,7 @@
         <v>375</v>
       </c>
       <c r="C167">
-        <v>2380</v>
+        <v>2737</v>
       </c>
       <c r="D167" t="s">
         <v>572</v>
@@ -7986,16 +8004,16 @@
         <v>604</v>
       </c>
       <c r="F167" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="G167" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L167" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M167" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -8018,13 +8036,13 @@
         <v>696</v>
       </c>
       <c r="G168" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L168" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M168" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -8047,10 +8065,10 @@
         <v>697</v>
       </c>
       <c r="G169" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M169" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -8073,13 +8091,13 @@
         <v>698</v>
       </c>
       <c r="G170" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L170" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M170" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -8102,13 +8120,13 @@
         <v>699</v>
       </c>
       <c r="G171" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L171" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M171" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -8131,13 +8149,13 @@
         <v>699</v>
       </c>
       <c r="G172" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L172" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M172" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -8148,7 +8166,7 @@
         <v>381</v>
       </c>
       <c r="C173">
-        <v>2318</v>
+        <v>2363</v>
       </c>
       <c r="D173" t="s">
         <v>578</v>
@@ -8157,16 +8175,16 @@
         <v>604</v>
       </c>
       <c r="F173" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G173" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L173" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M173" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -8189,13 +8207,13 @@
         <v>700</v>
       </c>
       <c r="G174" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L174" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M174" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -8206,7 +8224,7 @@
         <v>383</v>
       </c>
       <c r="C175">
-        <v>2380</v>
+        <v>2737</v>
       </c>
       <c r="D175" t="s">
         <v>580</v>
@@ -8215,16 +8233,16 @@
         <v>604</v>
       </c>
       <c r="F175" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="G175" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L175" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M175" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8235,7 +8253,7 @@
         <v>384</v>
       </c>
       <c r="C176">
-        <v>2747</v>
+        <v>3161</v>
       </c>
       <c r="D176" t="s">
         <v>581</v>
@@ -8244,16 +8262,16 @@
         <v>604</v>
       </c>
       <c r="F176" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G176" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L176" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M176" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -8276,13 +8294,13 @@
         <v>701</v>
       </c>
       <c r="G177" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L177" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M177" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8293,7 +8311,7 @@
         <v>386</v>
       </c>
       <c r="C178">
-        <v>2444</v>
+        <v>2566</v>
       </c>
       <c r="D178" t="s">
         <v>583</v>
@@ -8302,16 +8320,16 @@
         <v>604</v>
       </c>
       <c r="F178" t="s">
-        <v>616</v>
+        <v>702</v>
       </c>
       <c r="G178" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L178" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M178" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8331,16 +8349,16 @@
         <v>604</v>
       </c>
       <c r="F179" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G179" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L179" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M179" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8360,16 +8378,16 @@
         <v>604</v>
       </c>
       <c r="F180" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G180" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L180" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M180" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8389,10 +8407,10 @@
         <v>604</v>
       </c>
       <c r="F181" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="M181" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8403,7 +8421,7 @@
         <v>390</v>
       </c>
       <c r="C182">
-        <v>2444</v>
+        <v>2566</v>
       </c>
       <c r="D182" t="s">
         <v>587</v>
@@ -8412,16 +8430,16 @@
         <v>604</v>
       </c>
       <c r="F182" t="s">
-        <v>616</v>
+        <v>702</v>
       </c>
       <c r="G182" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L182" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M182" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8441,16 +8459,16 @@
         <v>604</v>
       </c>
       <c r="F183" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G183" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L183" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M183" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8461,7 +8479,7 @@
         <v>392</v>
       </c>
       <c r="C184">
-        <v>2477</v>
+        <v>2535</v>
       </c>
       <c r="D184" t="s">
         <v>589</v>
@@ -8470,16 +8488,16 @@
         <v>604</v>
       </c>
       <c r="F184" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G184" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L184" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M184" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8490,7 +8508,7 @@
         <v>393</v>
       </c>
       <c r="C185">
-        <v>2477</v>
+        <v>2535</v>
       </c>
       <c r="D185" t="s">
         <v>590</v>
@@ -8499,16 +8517,16 @@
         <v>604</v>
       </c>
       <c r="F185" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G185" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L185" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M185" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8519,7 +8537,7 @@
         <v>394</v>
       </c>
       <c r="C186">
-        <v>2477</v>
+        <v>2535</v>
       </c>
       <c r="D186" t="s">
         <v>591</v>
@@ -8528,16 +8546,16 @@
         <v>604</v>
       </c>
       <c r="F186" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G186" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L186" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M186" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8548,7 +8566,7 @@
         <v>395</v>
       </c>
       <c r="C187">
-        <v>2477</v>
+        <v>2535</v>
       </c>
       <c r="D187" t="s">
         <v>592</v>
@@ -8557,16 +8575,16 @@
         <v>604</v>
       </c>
       <c r="F187" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G187" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L187" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M187" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8577,7 +8595,7 @@
         <v>396</v>
       </c>
       <c r="C188">
-        <v>1531</v>
+        <v>1567</v>
       </c>
       <c r="D188" t="s">
         <v>593</v>
@@ -8586,16 +8604,16 @@
         <v>604</v>
       </c>
       <c r="F188" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G188" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L188" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M188" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8606,7 +8624,7 @@
         <v>397</v>
       </c>
       <c r="C189">
-        <v>4698</v>
+        <v>4934</v>
       </c>
       <c r="D189" t="s">
         <v>594</v>
@@ -8615,13 +8633,13 @@
         <v>604</v>
       </c>
       <c r="F189" t="s">
-        <v>611</v>
+        <v>707</v>
       </c>
       <c r="L189" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M189" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8641,13 +8659,13 @@
         <v>604</v>
       </c>
       <c r="F190" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="L190" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M190" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8658,7 +8676,7 @@
         <v>399</v>
       </c>
       <c r="C191">
-        <v>4794</v>
+        <v>4934</v>
       </c>
       <c r="D191" t="s">
         <v>596</v>
@@ -8670,10 +8688,10 @@
         <v>707</v>
       </c>
       <c r="L191" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M191" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8693,13 +8711,13 @@
         <v>604</v>
       </c>
       <c r="F192" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L192" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M192" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8719,13 +8737,13 @@
         <v>604</v>
       </c>
       <c r="F193" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L193" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M193" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8745,13 +8763,13 @@
         <v>604</v>
       </c>
       <c r="F194" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L194" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M194" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8771,13 +8789,13 @@
         <v>604</v>
       </c>
       <c r="F195" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L195" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="M195" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8797,13 +8815,13 @@
         <v>604</v>
       </c>
       <c r="F196" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L196" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="M196" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8823,16 +8841,16 @@
         <v>604</v>
       </c>
       <c r="F197" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G197" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="L197" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M197" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8843,7 +8861,7 @@
         <v>406</v>
       </c>
       <c r="C198">
-        <v>5221</v>
+        <v>5482</v>
       </c>
       <c r="D198" t="s">
         <v>603</v>
@@ -8852,19 +8870,19 @@
         <v>604</v>
       </c>
       <c r="F198" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="G198" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H198" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L198" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M198" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
     </row>
   </sheetData>

--- a/data/procesados/procesadosCanal/drimel.xlsx
+++ b/data/procesados/procesadosCanal/drimel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M198"/>
+  <dimension ref="A1:M192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2184</v>
+        <v>2541</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1,950.00</t>
+          <t>2,269.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PAMPERS-CONFORT-XTR-HIPER-XXGx34</t>
+          <t>pampers-confort-xtr-hiper-xxgx34</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3454</v>
+        <v>3973</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3,084.00</t>
+          <t>3,547.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4934</v>
+        <v>6404</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4,405.00</t>
+          <t>5,718.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2089</v>
+        <v>2712</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1,865.00</t>
+          <t>2,421.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -927,7 +927,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PAMPERS-SUPER-XTR-ULTRA-XXGx30</t>
+          <t>pampers-super-xtr-ultra-xxgx30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -980,7 +980,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HUGGIES-PLUS-PROTECT-XXGx26</t>
+          <t>huggies-plus-protect-xxgx26</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1033,7 +1033,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PAMPERS-CONFORT-XTR-HIPER-Mx52</t>
+          <t>pampers-confort-xtr-hiper-mx52</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3291</v>
+        <v>3973</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2,938.00</t>
+          <t>3,547.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1086,7 +1086,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DUFFY-PA-AL-HIPER-Px44</t>
+          <t>duffy-pa-al-hiper-px44</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1939</v>
+        <v>2612</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1,731.00</t>
+          <t>2,332.00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1148,7 +1148,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2584</v>
+        <v>3063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2,307.00</t>
+          <t>2,735.00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SELEC-EST-SUPER-XGx58</t>
+          <t>selec-est-super-xgx58</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3478</v>
+        <v>4189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3,105.00</t>
+          <t>3,740.00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1294,7 +1294,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SELEC-EST-SUPER-XXGx56</t>
+          <t>selec-est-super-xxgx56</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3478</v>
+        <v>4189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3,105.00</t>
+          <t>3,740.00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3760</v>
+        <v>4458</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3,357.00</t>
+          <t>3,980.00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BABYSEC-PREMIUM-JUMBO-XGx48</t>
+          <t>babysec-premium-jumbo-xgx48</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3760</v>
+        <v>4458</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3,357.00</t>
+          <t>3,980.00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BABYSEC-PREMIUM-JUMBO-XXGx44</t>
+          <t>babysec-premium-jumbo-xxgx44</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3760</v>
+        <v>4458</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3,357.00</t>
+          <t>3,980.00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>774</v>
+        <v>890</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>691.00</t>
+          <t>795.00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3240</v>
+        <v>3789</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2,893.00</t>
+          <t>3,383.00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-JUMBO-Gx60</t>
+          <t>babysec-ultra-jumbo-gx60</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3240</v>
+        <v>3789</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2,893.00</t>
+          <t>3,383.00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-JUMBO-XGx52</t>
+          <t>babysec-ultra-jumbo-xgx52</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3240</v>
+        <v>3789</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2,893.00</t>
+          <t>3,383.00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1706,7 +1706,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-JUMBO-XXGx50</t>
+          <t>babysec-ultra-jumbo-xxgx50</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1715,7 +1715,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3240</v>
+        <v>3789</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2,893.00</t>
+          <t>3,383.00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>772</v>
+        <v>887</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>689.00</t>
+          <t>792.00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1813,7 +1813,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>298</v>
+        <v>542</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>266.00</t>
+          <t>484.00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1849,7 +1849,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HUGGIES-TOALLA-OLEO-RNx80</t>
+          <t>huggies-toalla-oleo-rnx80</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1902,7 +1902,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HUGGIES-SUPREME-Mx68</t>
+          <t>huggies-supreme-mx68</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5630</v>
+        <v>6476</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5,027.00</t>
+          <t>5,782.00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1951,7 +1951,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HUGGIES-SUPREME-Gx60</t>
+          <t>huggies-supreme-gx60</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5630</v>
+        <v>6476</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5,027.00</t>
+          <t>5,782.00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2000,7 +2000,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HUGGIES-SUPREME-XGx52</t>
+          <t>huggies-supreme-xgx52</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5630</v>
+        <v>6476</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5,027.00</t>
+          <t>5,782.00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HUGGIES-SUPREME-XXGx50</t>
+          <t>huggies-supreme-xxgx50</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5630</v>
+        <v>6476</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>5,027.00</t>
+          <t>5,782.00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2666</v>
+        <v>3613</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2,380.00</t>
+          <t>3,226.00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2147,7 +2147,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HUGGIES-PROTECT-AHORRO-Mx68</t>
+          <t>huggies-protect-ahorro-mx68</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4255</v>
+        <v>4894</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3,799.00</t>
+          <t>4,370.00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2196,7 +2196,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HUGGIES-PROTECT-AHORRO-Gx60</t>
+          <t>huggies-protect-ahorro-gx60</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4255</v>
+        <v>4894</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3,799.00</t>
+          <t>4,370.00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2245,7 +2245,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HUGGIES-PROTECT-AHORRO-XGx52</t>
+          <t>huggies-protect-ahorro-xgx52</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2254,7 +2254,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4255</v>
+        <v>4894</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3,799.00</t>
+          <t>4,370.00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2294,7 +2294,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HUGGIES-PROTECT-AHORRO-XXGx50</t>
+          <t>huggies-protect-ahorro-xxgx50</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2303,7 +2303,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4255</v>
+        <v>4894</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3,799.00</t>
+          <t>4,370.00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2425</v>
+        <v>2789</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2,165.00</t>
+          <t>2,490.00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2388,7 +2388,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HUGGIES-SUPREME-Px50</t>
+          <t>huggies-supreme-px50</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3193</v>
+        <v>3674</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2,851.00</t>
+          <t>3,280.00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2437,7 +2437,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HUGGIES-FLEXI-COMFORT-AHORRO-XXGx50</t>
+          <t>huggies-flexi-comfort-ahorro-xxgx50</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4677</v>
+        <v>5395</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4,176.00</t>
+          <t>4,817.00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2486,7 +2486,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HUGGIES-PROTECT-Px30</t>
+          <t>huggies-protect-px30</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1613</v>
+        <v>1855</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1,440.00</t>
+          <t>1,656.00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>553</v>
+        <v>653</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>494.00</t>
+          <t>583.00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>976</v>
+        <v>1122</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>871.00</t>
+          <t>1,002.00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2625,7 +2625,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HUGGIES-CLASSIC-MEGA-Px30</t>
+          <t>huggies-classic-mega-px30</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2634,7 +2634,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1613</v>
+        <v>1855</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1,440.00</t>
+          <t>1,656.00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2674,7 +2674,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HUGGIES-SUPREME-RNx17</t>
+          <t>huggies-supreme-rnx17</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1543</v>
+        <v>1775</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1,378.00</t>
+          <t>1,585.00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2723,7 +2723,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HUGGIES-FLEXI-COMFORT-RNx17</t>
+          <t>huggies-flexi-comfort-rnx17</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2184</v>
+        <v>2512</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1,950.00</t>
+          <t>2,243.00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2821,7 +2821,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HUGGIES-FLEXI-COMFORT-Px30</t>
+          <t>huggies-flexi-comfort-px30</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2184</v>
+        <v>2512</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1,950.00</t>
+          <t>2,243.00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2870,7 +2870,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HUGGIES-FLEXI-COMFORT-Mx68</t>
+          <t>huggies-flexi-comfort-mx68</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2879,7 +2879,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4677</v>
+        <v>5395</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4,176.00</t>
+          <t>4,817.00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2919,7 +2919,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HUGGIES-FLEXI-COMFORT-Gx60</t>
+          <t>huggies-flexi-comfort-gx60</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4677</v>
+        <v>5395</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>4,176.00</t>
+          <t>4,817.00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2968,7 +2968,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HUGGIES-SUPREME-RNx34</t>
+          <t>huggies-supreme-rnx34</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2684</v>
+        <v>3086</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2,396.00</t>
+          <t>2,755.00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3017,7 +3017,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HUGGIES-FLEXI-COMFORT-Px50</t>
+          <t>huggies-flexi-comfort-px50</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2782</v>
+        <v>3200</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2,484.00</t>
+          <t>2,857.00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3066,7 +3066,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PAMPERS-SUPER-XTR-REG-XGx8</t>
+          <t>pampers-super-xtr-reg-xgx8</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>589</v>
+        <v>679</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>526.00</t>
+          <t>606.00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3160,7 +3160,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SELEC-EST-HIPER-Gx40</t>
+          <t>selec-est-hiper-gx40</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3169,7 +3169,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2127</v>
+        <v>2561</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1,899.00</t>
+          <t>2,287.00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3205,7 +3205,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SELEC-EST-HIPER-XXGx34</t>
+          <t>selec-est-hiper-xxgx34</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2127</v>
+        <v>2561</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1,899.00</t>
+          <t>2,287.00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3250,7 +3250,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HUGGIES-CLASSIC-AHORRO-Gx60</t>
+          <t>huggies-classic-ahorro-gx60</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4106</v>
+        <v>4722</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>3,666.00</t>
+          <t>4,216.00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3299,7 +3299,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HUGGIES-CLASSIC-AHORRO-XGx52</t>
+          <t>huggies-classic-ahorro-xgx52</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3308,7 +3308,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4106</v>
+        <v>4722</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>3,666.00</t>
+          <t>4,216.00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3348,7 +3348,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HUGGIES-CLASSIC-AHORRO-XXGx50</t>
+          <t>huggies-classic-ahorro-xxgx50</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4106</v>
+        <v>4722</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>3,666.00</t>
+          <t>4,216.00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3397,7 +3397,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PAMPERS-PREMIUM-HIPER-XGx36</t>
+          <t>pampers-premium-hiper-xgx36</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3406,7 +3406,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4473</v>
+        <v>5145</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>3,994.00</t>
+          <t>4,594.00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3455,7 +3455,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1081</v>
+        <v>1286</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>965.00</t>
+          <t>1,148.00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -3491,7 +3491,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HUGGIES-CLASSIC-AHORRO-Mx68</t>
+          <t>huggies-classic-ahorro-mx68</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4106</v>
+        <v>4722</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>3,666.00</t>
+          <t>4,216.00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1198</v>
+        <v>1416</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1,070.00</t>
+          <t>1,264.00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -3585,7 +3585,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HUGGIES-TOALLA-OLEO-RNx48</t>
+          <t>huggies-toalla-oleo-rnx48</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3634,7 +3634,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PAMPERS-SUPER-XTR-REG-Gx9</t>
+          <t>pampers-super-xtr-reg-gx9</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>589</v>
+        <v>679</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>526.00</t>
+          <t>606.00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3683,7 +3683,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PAMPERS-PANTS-PC-Mx34</t>
+          <t>pampers-pants-pc-mx34</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2737</v>
+        <v>3305</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2,444.00</t>
+          <t>2,951.00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3732,7 +3732,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-REGULAR-XXGx8</t>
+          <t>babysec-ultra-regular-xxgx8</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>505</v>
+        <v>589</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>451.00</t>
+          <t>526.00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>456</v>
+        <v>559</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>407.00</t>
+          <t>499.00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2584</v>
+        <v>3063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2,307.00</t>
+          <t>2,735.00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3875,7 +3875,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BABYSEC-PREMIUM-HIPER-XGx32</t>
+          <t>babysec-premium-hiper-xgx32</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2584</v>
+        <v>3063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2,307.00</t>
+          <t>2,735.00</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>589</v>
+        <v>679</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>526.00</t>
+          <t>606.00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>431</v>
+        <v>510</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>385.00</t>
+          <t>455.00</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -4027,7 +4027,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3478</v>
+        <v>4189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>3,105.00</t>
+          <t>3,740.00</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -4059,7 +4059,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HUGGIES-SUPREME-Px30</t>
+          <t>huggies-supreme-px30</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2684</v>
+        <v>3086</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2,396.00</t>
+          <t>2,755.00</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4117,7 +4117,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>629</v>
+        <v>725</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>562.00</t>
+          <t>647.00</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4157,7 +4157,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PAMPERS-SUPER-XTR-REG-Px12</t>
+          <t>pampers-super-xtr-reg-px12</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4166,7 +4166,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>589</v>
+        <v>679</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>526.00</t>
+          <t>606.00</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4206,7 +4206,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-SUPER-JUNIORx50</t>
+          <t>estrella-pa-al-super-juniorx50</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4215,7 +4215,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4552</v>
+        <v>5236</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>4,064.00</t>
+          <t>4,675.00</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -4260,7 +4260,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2784</v>
+        <v>3202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2,486.00</t>
+          <t>2,859.00</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4309,7 +4309,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>222.00</t>
+          <t>262.00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-HIPER-Vrom-XGx28</t>
+          <t>babysec-ultra-hiper-vrom-xgx28</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4354,7 +4354,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1863</v>
+        <v>2303</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1,663.00</t>
+          <t>2,056.00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4439,7 +4439,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PAMPERS-SUPER-XTR-REG-XXGx8</t>
+          <t>pampers-super-xtr-reg-xxgx8</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>589</v>
+        <v>679</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>526.00</t>
+          <t>606.00</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4488,7 +4488,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HUGGIES-FLEXI-COMFORT-AHORRO-XXXGx48</t>
+          <t>huggies-flexi-comfort-ahorro-xxxgx48</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4497,7 +4497,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4677</v>
+        <v>5395</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>4,176.00</t>
+          <t>4,817.00</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4537,7 +4537,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HUGGIES-PROTECT-AHORRO-XXXGx48</t>
+          <t>huggies-protect-ahorro-xxxgx48</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4255</v>
+        <v>4894</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>3,799.00</t>
+          <t>4,370.00</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4586,7 +4586,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SELEC-EST-HIPER-Mx44</t>
+          <t>selec-est-hiper-mx44</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4595,7 +4595,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2121</v>
+        <v>2561</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1,844.00</t>
+          <t>2,287.00</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4631,7 +4631,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HUGGIES-SUPREME-PREMATUROSx30</t>
+          <t>huggies-supreme-prematurosx30</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4640,7 +4640,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1922</v>
+        <v>2211</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1,716.00</t>
+          <t>1,974.00</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4680,7 +4680,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HUGGIES-FLEXI-COMFORT-XGx52</t>
+          <t>huggies-flexi-comfort-xgx52</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4689,7 +4689,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4677</v>
+        <v>5395</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>4,176.00</t>
+          <t>4,817.00</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4729,7 +4729,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>PAMPERS-CONFORT-XTR-JUMBO-Gx110</t>
+          <t>pampers-confort-xtr-jumbo-gx110</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>7894</v>
+        <v>9078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>7,048.00</t>
+          <t>8,105.00</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4778,7 +4778,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-HIPER-Vrom-Gx36</t>
+          <t>babysec-ultra-hiper-vrom-gx36</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4787,7 +4787,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1863</v>
+        <v>2303</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1,663.00</t>
+          <t>2,056.00</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4827,7 +4827,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>DUFFY-PA-AL-PREMIUM-XGx32</t>
+          <t>duffy-pa-al-premium-xgx32</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2666</v>
+        <v>3613</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2,380.00</t>
+          <t>3,226.00</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4885,7 +4885,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>629</v>
+        <v>711</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>562.00</t>
+          <t>635.00</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4925,7 +4925,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HUGGIES-SUPREME-XXXG-x48</t>
+          <t>huggies-supreme-xxxg-x48</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4934,7 +4934,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5630</v>
+        <v>6476</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>5,027.00</t>
+          <t>5,782.00</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4983,7 +4983,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2666</v>
+        <v>3613</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2,380.00</t>
+          <t>3,226.00</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -5023,7 +5023,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>DUFFY-PA-AL-PREMIUM-XXGx30</t>
+          <t>duffy-pa-al-premium-xxgx30</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5072,7 +5072,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CARICIA-PANAL-M-x28</t>
+          <t>caricia-panal-m-x28</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5121,7 +5121,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CARICIA-PANAL-XXGx22</t>
+          <t>caricia-panal-xxgx22</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5130,7 +5130,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1310</v>
+        <v>1581</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1,170.00</t>
+          <t>1,412.00</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -5179,7 +5179,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>943</v>
+        <v>1135</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>842.00</t>
+          <t>1,013.00</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -5224,7 +5224,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>943</v>
+        <v>1135</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>842.00</t>
+          <t>1,013.00</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>943</v>
+        <v>1135</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>842.00</t>
+          <t>1,013.00</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -5314,7 +5314,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2363</v>
+        <v>3069</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2,110.00</t>
+          <t>2,740.00</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -5363,7 +5363,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2363</v>
+        <v>3069</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2,110.00</t>
+          <t>2,740.00</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -5457,7 +5457,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>609</v>
+        <v>701</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>544.00</t>
+          <t>626.00</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>943</v>
+        <v>1135</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>842.00</t>
+          <t>1,013.00</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>609</v>
+        <v>734</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>544.00</t>
+          <t>655.00</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
@@ -5637,7 +5637,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>609</v>
+        <v>734</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>544.00</t>
+          <t>655.00</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
@@ -5673,7 +5673,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-HIPER-Gx40</t>
+          <t>estrella-pa-al-hiper-gx40</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2784</v>
+        <v>3202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2,486.00</t>
+          <t>2,859.00</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5722,7 +5722,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-SUPER-Gx68</t>
+          <t>estrella-pa-al-super-gx68</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5731,7 +5731,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>4552</v>
+        <v>5236</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>4,064.00</t>
+          <t>4,675.00</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5771,7 +5771,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-SUPER-XGx58</t>
+          <t>estrella-pa-al-super-xgx58</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5780,7 +5780,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>4552</v>
+        <v>5236</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>4,064.00</t>
+          <t>4,675.00</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -5820,7 +5820,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-SUPER-XXGx56</t>
+          <t>estrella-pa-al-super-xxgx56</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1093</v>
+        <v>1315</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>976.00</t>
+          <t>1,174.00</t>
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
@@ -5914,7 +5914,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-HIPER-Vrom-Mx44</t>
+          <t>babysec-ultra-hiper-vrom-mx44</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1863</v>
+        <v>2303</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1,663.00</t>
+          <t>2,056.00</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>827</v>
+        <v>993</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>738.00</t>
+          <t>887.00</t>
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1822</v>
+        <v>2191</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1,627.00</t>
+          <t>1,956.00</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
@@ -6053,20 +6053,20 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>HUGGIES-PROTECT-REG-Px8</t>
+          <t>huggies-protect-reg-gx8</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Huggies - Pañal Protect - Regular - Pequeño - 8 Unidades</t>
+          <t>Huggies - Pañal Protect - Protect plus - Grande - 8 Unidades</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>612</v>
+        <v>774</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>7794626010446</t>
+          <t>7794626999765</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6076,12 +6076,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>546.00</t>
+          <t>691.00</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Pequeño</t>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -6095,27 +6095,27 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>Drimel6795</t>
+          <t>Drimel6797</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>HUGGIES-PROTECT-REG-Mx8</t>
+          <t>ESTRELLA-JABON-BABY-GLICERINAx60</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Huggies - Pañal Protect - Regular - Mediano - 8 Unidades</t>
+          <t>ESTRELLA JABON BABY GLICERINAx60</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>612</v>
+        <v>276</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>7794626999758</t>
+          <t>7790064104525</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6125,46 +6125,42 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>546.00</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Mediano</t>
-        </is>
-      </c>
+          <t>246.00</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Algabo Baby</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>Drimel6796</t>
+          <t>Drimel6808</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>HUGGIES-PROTECT-REG-Gx8</t>
+          <t>ESTRELLA-JABON-BABY-SUAVIDADx60</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Huggies - Pañal Protect - Regular - Grande - 8 Unidades</t>
+          <t>ESTRELLA JABON BABY SUAVIDADx60</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>612</v>
+        <v>276</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>7794626999765</t>
+          <t>7790064104501</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6174,46 +6170,42 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>546.00</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
-        </is>
-      </c>
+          <t>246.00</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Algabo Baby</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>Drimel6797</t>
+          <t>Drimel6809</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>HUGGIES-PROTECT-REG-XGx8</t>
+          <t>ESTRELLA-HISOPOSx100</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Huggies - Pañal Protect - Regular - XGrande - 8 Unidades</t>
+          <t>ESTRELLA HISOPOSx100</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>7794626999772</t>
+          <t>7790064104662</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6223,46 +6215,42 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>546.00</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
-        </is>
-      </c>
+          <t>554.00</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>Drimel6798</t>
+          <t>Drimel6814</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>HUGGIES-PROTECT-REG-XXGx8</t>
+          <t>estrella-oleo-aloe-250</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Huggies - Pañal Protect - Regular - XXGrande - 8 Unidades</t>
+          <t>Estrella - Oleo aloe 250</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>612</v>
+        <v>993</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>7794626999789</t>
+          <t>7790064104846</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6272,46 +6260,42 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>546.00</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
-        </is>
-      </c>
+          <t>887.00</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>Drimel6799</t>
+          <t>Drimel6815</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ESTRELLA-JABON-BABY-GLICERINAx60</t>
+          <t>estrella-toallas-humedas-cuidado-x-50</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ESTRELLA JABON BABY GLICERINAx60</t>
+          <t>Estrella - Toallas humedas cuidado x 50</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>228</v>
+        <v>735</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>7790064104525</t>
+          <t>7790064104686</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6321,7 +6305,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>204.00</t>
+          <t>656.00</t>
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
@@ -6331,32 +6315,32 @@
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Algabo Baby</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Drimel6808</t>
+          <t>Drimel6816</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ESTRELLA-JABON-BABY-SUAVIDADx60</t>
+          <t>JOHNSONS-BA-O-LIQ-GLICERINAx200</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ESTRELLA JABON BABY SUAVIDADx60</t>
+          <t>JOHNSONS BAÑO LIQ.GLICERINAx200</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>228</v>
+        <v>899</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>7790064104501</t>
+          <t>7790010540063</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6366,7 +6350,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>204.00</t>
+          <t>782.00</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
@@ -6376,32 +6360,32 @@
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Algabo Baby</t>
+          <t>Johnsons</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Drimel6809</t>
+          <t>Drimel6830</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ESTRELLA-HISOPOSx100</t>
+          <t>estrella-pa-al-hiper-xgx36</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ESTRELLA HISOPOSx100</t>
+          <t>Estrella - Pañal Hiper - XGrande - 36 Unidades</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>516</v>
+        <v>3202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>7790064104662</t>
+          <t>7790064004085</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6411,10 +6395,14 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>461.00</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr"/>
+          <t>2,859.00</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
+        </is>
+      </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -6426,27 +6414,27 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Drimel6814</t>
+          <t>Drimel6847</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>estrella-oleo-aloe-250</t>
+          <t>estrella-pa-al-hiper-xxgx34</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Estrella - Oleo aloe 250</t>
+          <t>Estrella - Pañal Hiper - XXGrande - 34 Unidades</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>827</v>
+        <v>3202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>7790064104846</t>
+          <t>7790064004139</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6456,10 +6444,14 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>738.00</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr"/>
+          <t>2,859.00</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
+        </is>
+      </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -6471,27 +6463,27 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Drimel6815</t>
+          <t>Drimel6848</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>estrella-toallas-humedas-cuidado-x-50</t>
+          <t>ESTRELLA-PA-AL-MEGA-Px30</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Estrella - Toallas humedas cuidado x 50</t>
+          <t>Estrella - Pañal Mega - Pequeño - 30 Unidades</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>640</v>
+        <v>1950</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>7790064104686</t>
+          <t>7790064004023</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6501,10 +6493,14 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>571.00</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr"/>
+          <t>1,741.00</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Pequeño</t>
+        </is>
+      </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -6516,27 +6512,27 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Drimel6816</t>
+          <t>Drimel6849</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>JOHNSONS-BA-O-LIQ-GLICERINAx200</t>
+          <t>estrella-pa-al-regular-xgx8</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>JOHNSONS BAÑO LIQ.GLICERINAx200</t>
+          <t>Estrella - Pañal Regular - XGrande - 8 Unidades</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>899</v>
+        <v>872</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>7790010540063</t>
+          <t>7790064004078</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6546,42 +6542,46 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>782.00</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr"/>
+          <t>779.00</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
+        </is>
+      </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Johnsons</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Drimel6830</t>
+          <t>Drimel6852</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-HIPER-XGx36</t>
+          <t>ESTRELLA-PA-AL-REGULAR-XXGx8</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Estrella - Pañal Hiper - XGrande - 36 Unidades</t>
+          <t>Estrella - Pañal Regular - XXGrande - 8 Unidades</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2784</v>
+        <v>872</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>7790064004085</t>
+          <t>7790064004092</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2,486.00</t>
+          <t>779.00</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -6610,27 +6610,27 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Drimel6847</t>
+          <t>Drimel6853</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-HIPER-XXGx34</t>
+          <t>huggies-classic-reg-mx8</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Estrella - Pañal Hiper - XXGrande - 34 Unidades</t>
+          <t>Huggies - Pañal Classic - Regular - Mediano - 8 Unidades</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2784</v>
+        <v>774</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>7790064004139</t>
+          <t>7794626996931</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -6640,12 +6640,12 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2,486.00</t>
+          <t>691.00</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Mediano</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
@@ -6654,32 +6654,32 @@
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>Drimel6848</t>
+          <t>Drimel6858</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-MEGA-Px30</t>
+          <t>huggies-classic-reg-xxgx8</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Estrella - Pañal Mega - Pequeño - 30 Unidades</t>
+          <t>Huggies - Pañal Classic - Regular - XXGrande - 8 Unidades</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1622</v>
+        <v>774</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>7790064004023</t>
+          <t>7794626009563</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6689,12 +6689,12 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>1,448.00</t>
+          <t>691.00</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Pequeño</t>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
@@ -6703,32 +6703,32 @@
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>Drimel6849</t>
+          <t>Drimel6861</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-REGULAR-XGx8</t>
+          <t>ESTRELLA-POMPONES-x50</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Estrella - Pañal Regular - XGrande - 8 Unidades</t>
+          <t>ESTRELLA POMPONES x50</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>764</v>
+        <v>562</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>7790064004078</t>
+          <t>7790064002029</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -6738,14 +6738,10 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>682.00</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
-        </is>
-      </c>
+          <t>502.00</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -6757,27 +6753,27 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>Drimel6852</t>
+          <t>Drimel6875</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-REGULAR-XXGx8</t>
+          <t>ESTRELLA-JABON-BABY-DUERME-FELIZx60</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Estrella - Pañal Regular - XXGrande - 8 Unidades</t>
+          <t>ESTRELLA JABON BABY DUERME FELIZx60</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>764</v>
+        <v>276</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>7790064004092</t>
+          <t>7790064104518</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -6787,14 +6783,10 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>682.00</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
-        </is>
-      </c>
+          <t>246.00</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -6806,27 +6798,27 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Drimel6853</t>
+          <t>Drimel6882</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>HUGGIES-CLASSIC-REG-Px8</t>
+          <t>babysec-ultra-regular-px12</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Huggies - Pañal Classic - Regular - Pequeño - 8 Unidades</t>
+          <t>Babysec - Pañal Ultra Regular - Pequeño - 12 Unidades</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>612</v>
+        <v>589</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>7794626996917</t>
+          <t>7790250044208</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -6836,7 +6828,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>546.00</t>
+          <t>526.00</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -6850,32 +6842,32 @@
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Algabo Baby</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Drimel6857</t>
+          <t>Drimel6894</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>HUGGIES-CLASSIC-REG-Mx8</t>
+          <t>BABYSEC-ULTRA-REGULAR-Gx8</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Huggies - Pañal Classic - Regular - Mediano - 8 Unidades</t>
+          <t>Babysec - Pañal Ultra Regular - Grande - 8 Unidades</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>612</v>
+        <v>589</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>7794626996931</t>
+          <t>7790250041887</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6885,12 +6877,12 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>546.00</t>
+          <t>526.00</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Mediano</t>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
         </is>
       </c>
       <c r="H133" t="inlineStr"/>
@@ -6899,32 +6891,32 @@
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Algabo Baby</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Drimel6858</t>
+          <t>Drimel6896</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>HUGGIES-CLASSIC-REG-Gx8</t>
+          <t>BABYSEC-ULTRA-REGULAR-XGx8</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Huggies - Pañal Classic - Regular - Grande - 8 Unidades</t>
+          <t>Babysec - Pañal Ultra Regular - XGrande - 8 Unidades</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>612</v>
+        <v>589</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>7794626996900</t>
+          <t>7790250044239</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6934,7 +6926,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>546.00</t>
+          <t>526.00</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6948,32 +6940,32 @@
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Algabo Baby</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>Drimel6859</t>
+          <t>Drimel6897</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>HUGGIES-CLASSIC-REG-XXGx8</t>
+          <t>estrella-pa-os-maxi-algodonx50</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Huggies - Pañal Classic - Regular - XXGrande - 8 Unidades</t>
+          <t>Estrella - Paños maxi algodon x 50</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>612</v>
+        <v>1215</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>7794626009563</t>
+          <t>7790064002173</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6983,46 +6975,42 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>546.00</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
-        </is>
-      </c>
+          <t>1,085.00</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>Drimel6861</t>
+          <t>Drimel6934</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ESTRELLA-POMPONES-x50</t>
+          <t>candy-toallas-humedasx70</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ESTRELLA POMPONES x50</t>
+          <t>Candy - Toallas humedas x 70</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>467</v>
+        <v>256</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>7790064002029</t>
+          <t>7798269140065</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7032,7 +7020,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>417.00</t>
+          <t>229.00</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
@@ -7042,32 +7030,32 @@
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Candy</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>Drimel6875</t>
+          <t>Drimel7674</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ESTRELLA-JABON-BABY-DUERME-FELIZx60</t>
+          <t>huggies-toalla-frozenx48</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ESTRELLA JABON BABY DUERME FELIZx60</t>
+          <t>Huggies - Toalla Frozen x 48</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>228</v>
+        <v>768</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>7790064104518</t>
+          <t>7794626012594</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7077,7 +7065,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>204.00</t>
+          <t>686.00</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
@@ -7087,32 +7075,32 @@
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Princesas</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>Drimel6882</t>
+          <t>Drimel7675</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-REGULAR-Px12</t>
+          <t>huggies-crema-protectorax80</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Babysec - Pañal Ultra Regular - Pequeño - 12 Unidades</t>
+          <t>Huggies - Crema protectora x 80</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>505</v>
+        <v>3004</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>7790250044208</t>
+          <t>7896018704411</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7122,46 +7110,42 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>451.00</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Pequeño</t>
-        </is>
-      </c>
+          <t>2,682.00</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Algabo Baby</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>Drimel6894</t>
+          <t>Drimel7676</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-REGULAR-Gx8</t>
+          <t>huggies-supreme-px17</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Babysec - Pañal Ultra Regular - Grande - 8 Unidades</t>
+          <t>Huggies - Pañal Supreme - Pequeño - 17 Unidades</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>505</v>
+        <v>1775</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>7790250041887</t>
+          <t>7794626010408</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7171,12 +7155,12 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>451.00</t>
+          <t>1,585.00</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Pequeño</t>
         </is>
       </c>
       <c r="H139" t="inlineStr"/>
@@ -7185,32 +7169,32 @@
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Algabo Baby</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>Drimel6896</t>
+          <t>Drimel7695</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-REGULAR-XGx8</t>
+          <t>PAMPERS-SUPER-XTR-MES-Gx68</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Babysec - Pañal Ultra Regular - XGrande - 8 Unidades</t>
+          <t>Pampers - Pañal Super Extra Protección - Mensual - Grande - 68 Unidades</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>505</v>
+        <v>3421</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>7790250044239</t>
+          <t>7500435189354</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7220,7 +7204,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>451.00</t>
+          <t>3,110.00</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -7234,32 +7218,32 @@
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Algabo Baby</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>Drimel6897</t>
+          <t>Drimel7699</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>estrella-pa-os-maxi-algodonx50</t>
+          <t>pampers-total-protect-mx54</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Estrella - Paños maxi algodon x 50</t>
+          <t>Pampers - Total Protect - Mediano- 9 Unidades</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1011</v>
+        <v>2318</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>7790064002173</t>
+          <t>7500435167949</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7269,42 +7253,46 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>903.00</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr"/>
+          <t>2,070.00</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Mediano</t>
+        </is>
+      </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>Drimel6934</t>
+          <t>Drimel7701</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>candy-toallas-humedasx70</t>
+          <t>PAMPERS-SUPER-XTR-ULTRA-Mx48</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Candy - Toallas humedas x 70</t>
+          <t>PAMPERS SUPER XTR ULTRA Mx48</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>256</v>
+        <v>1795</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>7798269140065</t>
+          <t>7500435189262</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7314,7 +7302,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>229.00</t>
+          <t>1,561.00</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
@@ -7324,32 +7312,32 @@
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Candy</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>Drimel7674</t>
+          <t>Drimel7703</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>huggies-toalla-frozenx48</t>
+          <t>ESTRELLA-TOALLAS-HUMEDAS-RELAJANTEx50</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Huggies - Toalla Frozen x 48</t>
+          <t>ESTRELLA TOALLAS HUMEDAS RELAJANTEx50</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>650</v>
+        <v>735</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>7794626012594</t>
+          <t>7790064104679</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7359,7 +7347,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>580.00</t>
+          <t>656.00</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
@@ -7369,32 +7357,32 @@
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Princesas</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Drimel7675</t>
+          <t>Drimel7706</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>huggies-crema-protectorax80</t>
+          <t>BABYSEC-TOALLAS-HUM-Ultra-3-50</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Huggies - Crema protectora x 80</t>
+          <t>BABYSEC TOALLAS HUM.Ultra 3×50</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2612</v>
+        <v>1057</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>7896018704411</t>
+          <t>7806500730972</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7404,7 +7392,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2,332.00</t>
+          <t>919.00</t>
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
@@ -7414,32 +7402,32 @@
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Babysec</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>Drimel7676</t>
+          <t>Drimel7779</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>HUGGIES-SUPREME-Px17</t>
+          <t>pampers-confort-xtr-hiper-xgx36</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Huggies - Pañal Supreme - Pequeño - 17 Unidades</t>
+          <t>Pampers - Confort XTR - Hiper - XGrande - 36 Unidades</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1543</v>
+        <v>3973</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>7794626010408</t>
+          <t>7500435189071</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7449,12 +7437,12 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1,378.00</t>
+          <t>3,547.00</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Pequeño</t>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
         </is>
       </c>
       <c r="H145" t="inlineStr"/>
@@ -7463,32 +7451,32 @@
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>Drimel7695</t>
+          <t>Drimel7781</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>PAMPERS-SUPER-XTR-MES-Gx68</t>
+          <t>BABYSEC-ULTRA-TRI-PACK-Mx26</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Pampers - Pañal Super Extra Protección - Mensual - Grande - 68 Unidades</t>
+          <t>BABYSEC ULTRA TRI-PACK Mx26</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>3421</v>
+        <v>842</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>7500435189354</t>
+          <t>7790250045311</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7498,12 +7486,12 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>3,110.00</t>
+          <t>702.00</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Mediano</t>
         </is>
       </c>
       <c r="H146" t="inlineStr"/>
@@ -7512,32 +7500,32 @@
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Babysec</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>Drimel7699</t>
+          <t>Drimel7789</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>PAMPERS-TOTAL-PROTECT-Mx54</t>
+          <t>babysec-premium-tri-pack-px30</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Pampers - Total Protect - Mediano- 9 Unidades</t>
+          <t>Babysec - Pañal Premium Tri-Pack - Pequeño - 30 Unidades</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2318</v>
+        <v>1716</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>7500435167949</t>
+          <t>7790250047148</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -7547,12 +7535,12 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2,070.00</t>
+          <t>1,532.00</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Mediano</t>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Pequeño</t>
         </is>
       </c>
       <c r="H147" t="inlineStr"/>
@@ -7561,32 +7549,32 @@
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Babysec</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>Drimel7701</t>
+          <t>Drimel7837</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>PAMPERS-SUPER-XTR-ULTRA-Mx48</t>
+          <t>DUFFY-PA-AL-COTTON-Mx38</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PAMPERS SUPER XTR ULTRA Mx48</t>
+          <t>Duffy - Pañal Cotton - Mediano - 38 Unidades</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1795</v>
+        <v>2221</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>7500435189262</t>
+          <t>7798350082380</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -7596,42 +7584,46 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>1,561.00</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr"/>
+          <t>1,983.00</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Mediano</t>
+        </is>
+      </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Duffy</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>Drimel7703</t>
+          <t>Drimel7860</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ESTRELLA-TOALLAS-HUMEDAS-RELAJANTEx50</t>
+          <t>DUFFY-PA-AL-COTTON-XXGx26</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ESTRELLA TOALLAS HUMEDAS RELAJANTEx50</t>
+          <t>Duffy - Pañal Cotton - XXGrande - 26 Unidades</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>640</v>
+        <v>2221</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>7790064104679</t>
+          <t>7798350081260</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -7641,42 +7633,46 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>571.00</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr"/>
+          <t>1,983.00</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
+        </is>
+      </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Duffy</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>Drimel7706</t>
+          <t>Drimel7862</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BABYSEC-TOALLAS-HUM-Ultra-3-50</t>
+          <t>duffy-pa-al-cotton-xgx28</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>BABYSEC TOALLAS HUM.Ultra 3×50</t>
+          <t>Duffy - Pañal Cotton - XGrande - 28 Unidades</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1057</v>
+        <v>2221</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>7806500730972</t>
+          <t>7798350081284</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -7686,42 +7682,46 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>919.00</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr"/>
+          <t>1,983.00</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
+        </is>
+      </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Babysec</t>
+          <t>Duffy</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>Drimel7779</t>
+          <t>Drimel7873</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>PAMPERS-CONFORT-XTR-HIPER-XGx36</t>
+          <t>PAMPERS-SUPER-XTR-MES-XXGx54</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Pampers - Confort XTR - Hiper - XGrande - 36 Unidades</t>
+          <t>Pampers - Pañal Super Extra Protección - Mensual - XXGrande - 54 Unidades</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>3454</v>
+        <v>3421</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>7500435189071</t>
+          <t>7500435189378</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>3,084.00</t>
+          <t>3,110.00</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -7750,27 +7750,27 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>Drimel7781</t>
+          <t>Drimel7879</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-TRI-PACK-Mx26</t>
+          <t>deyse-oleo-calcareox250</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>BABYSEC ULTRA TRI-PACK Mx26</t>
+          <t>Deyse - Oleo calcareo x 250</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>842</v>
+        <v>396</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>7790250045311</t>
+          <t>7797273000280</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -7780,46 +7780,42 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>702.00</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Mediano</t>
-        </is>
-      </c>
+          <t>354.00</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Babysec</t>
+          <t>Deyse</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>Drimel7789</t>
+          <t>Drimel7910</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BABYSEC-PREMIUM-TRI-PACK-Px30</t>
+          <t>JOHNSONS-SHAMPO-CLASICOx400</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Babysec - Pañal Premium Tri-Pack - Pequeño - 30 Unidades</t>
+          <t>JOHNSONS SHAMPO CLASICOx400</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1044</v>
+        <v>1235</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>7790250047148</t>
+          <t>7790010540148</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -7827,48 +7823,40 @@
           <t>Drimel</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>932.00</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Pequeño</t>
-        </is>
-      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Babysec</t>
+          <t>Johnsons</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>Drimel7837</t>
+          <t>Drimel7913</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>DUFFY-PA-AL-COTTON-Mx38</t>
+          <t>estrella-toallas-humedas-sensiblex50</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Duffy - Pañal Cotton - Mediano - 38 Unidades</t>
+          <t>Estrella - Toallas humedas sensible x 50</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1677</v>
+        <v>735</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>7798350082380</t>
+          <t>7790064104693</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -7878,46 +7866,42 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1,497.00</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Mediano</t>
-        </is>
-      </c>
+          <t>656.00</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Duffy</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>Drimel7860</t>
+          <t>Drimel7927</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>DUFFY-PA-AL-COTTON-XXGx26</t>
+          <t>estrella-hisopos-bolsax125</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Duffy - Pañal Cotton - XXGrande - 26 Unidades</t>
+          <t>Estrella - Hisopos bolsa x 125</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1677</v>
+        <v>597</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>7798350081260</t>
+          <t>7790064104709</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -7927,46 +7911,42 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1,497.00</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
-        </is>
-      </c>
+          <t>533.00</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Duffy</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>Drimel7862</t>
+          <t>Drimel7936</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>DUFFY-PA-AL-COTTON-XGx28</t>
+          <t>estrella-pa-al-regular-gx9</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Duffy - Pañal Cotton - XGrande - 28 Unidades</t>
+          <t>Estrella - Pañal Regular - Grande - 9 Unidades</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1677</v>
+        <v>872</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>7798350081284</t>
+          <t>7790064004054</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -7976,7 +7956,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>1,497.00</t>
+          <t>779.00</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -7990,32 +7970,32 @@
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Duffy</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>Drimel7873</t>
+          <t>Drimel7939</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>PAMPERS-SUPER-XTR-MES-XXGx54</t>
+          <t>babysec-premium-hiper-xxgx30</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Pampers - Pañal Super Extra Protección - Mensual - XXGrande - 54 Unidades</t>
+          <t>Babysec - Pañal Premium Hiper - XXGrande - 30 Unidades</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3421</v>
+        <v>3063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>7500435189378</t>
+          <t>7790250047377</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8025,7 +8005,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>3,110.00</t>
+          <t>2,735.00</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -8039,32 +8019,32 @@
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Algabo Baby</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>Drimel7879</t>
+          <t>Drimel7943</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>deyse-oleo-calcareox250</t>
+          <t>babysec-ultra-hiper-vrom-xxgx26</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Deyse - Oleo calcareo x 250</t>
+          <t>Babysec - Pañal Ultra Hiper - Vrom - XXGrande - 26 Unidades</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>338</v>
+        <v>2303</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>7797273000280</t>
+          <t>7790250044604</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8074,42 +8054,46 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>294.00</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr"/>
+          <t>2,056.00</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
+        </is>
+      </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Deyse</t>
+          <t>Algabo Baby</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>Drimel7910</t>
+          <t>Drimel7945</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>JOHNSONS-SHAMPO-CLASICOx400</t>
+          <t>PAMPERS-PANTS-CS-HIPER-Gx40</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>JOHNSONS SHAMPO CLASICOx400</t>
+          <t>Pampers - Pants Confort Sec Hiper - Grande - 40 Unidades</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1235</v>
+        <v>3816</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>7790010540148</t>
+          <t>7500435189620</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8117,40 +8101,48 @@
           <t>Drimel</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3,407.00</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
+        </is>
+      </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Johnsons</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>Drimel7913</t>
+          <t>Drimel7959</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>estrella-toallas-humedas-sensiblex50</t>
+          <t>pampers-pants-cs-hiper-mx48</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Estrella - Toallas humedas sensible x 50</t>
+          <t>Pampers - Pants Confort Sec Hiper - Mediano - 48 Unidades</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>640</v>
+        <v>2647</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>7790064104693</t>
+          <t>7500435189682</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8160,42 +8152,46 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>571.00</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr"/>
+          <t>2,302.00</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Mediano</t>
+        </is>
+      </c>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>Drimel7927</t>
+          <t>Drimel7960</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>estrella-hisopos-bolsax125</t>
+          <t>pampers-pants-pc-gx30</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Estrella - Hisopos bolsa x 125</t>
+          <t>Pampers - Pants Protección Continua - Grande - 30 Unidades</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>496</v>
+        <v>3305</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>7790064104709</t>
+          <t>7500435178303</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8205,42 +8201,46 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>443.00</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr"/>
+          <t>2,951.00</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
+        </is>
+      </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>Drimel7936</t>
+          <t>Drimel7961</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-REGULAR-Gx9</t>
+          <t>pampers-pants-pc-mes-gx64</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Estrella - Pañal Regular - Grande - 9 Unidades</t>
+          <t>Pampers - Pants Protección Continua - Mensual - Grande - 64 Unidades</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>764</v>
+        <v>7034</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>7790064004054</t>
+          <t>7500435141246</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>682.00</t>
+          <t>6,280.00</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -8264,32 +8264,32 @@
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>Drimel7939</t>
+          <t>Drimel7962</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>BABYSEC-PREMIUM-HIPER-XXGx30</t>
+          <t>SELEC-EST-MEGA-Px30</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Babysec - Pañal Premium Hiper - XXGrande - 30 Unidades</t>
+          <t>SELEC.EST.MEGA Px30</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2584</v>
+        <v>1122</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>7790250047377</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8299,46 +8299,42 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2,307.00</t>
+          <t>935.00</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Pequeño</t>
         </is>
       </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>Algabo Baby</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr">
         <is>
-          <t>Drimel7943</t>
+          <t>Drimel7995</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-HIPER-Vrom-XXGx26</t>
+          <t>PAMPERS-PREMIUM-MES-HP-XGx58</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Babysec - Pañal Ultra Hiper - Vrom - XXGrande - 26 Unidades</t>
+          <t>Pampers - Pañal Premium Mensual Hiper - XGrande - 58 Unidades</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1863</v>
+        <v>6306</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>7790250044604</t>
+          <t>7500435188883</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8348,7 +8344,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1,663.00</t>
+          <t>5,630.00</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -8362,32 +8358,32 @@
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Algabo Baby</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>Drimel7945</t>
+          <t>Drimel8000</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>PAMPERS-PANTS-CS-HIPER-Gx40</t>
+          <t>PAMPERS-PREMIUM-XTR-MES-XXGx54</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Pampers - Pants Confort Sec Hiper - Grande - 40 Unidades</t>
+          <t>PAMPERS PREMIUM XTR MES XXGx54</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>3161</v>
+        <v>6306</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>7500435189620</t>
+          <t>7500435188906</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -8397,7 +8393,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2,822.00</t>
+          <t>5,630.00</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -8416,27 +8412,27 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>Drimel7959</t>
+          <t>Drimel8001</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>PAMPERS-PANTS-CS-HIPER-Mx48</t>
+          <t>PAMPERS-PREMIUM-XTR-MES-Gx72</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Pampers - Pants Confort Sec Hiper - Mediano - 48 Unidades</t>
+          <t>PAMPERS PREMIUM XTR MES Gx72</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>2647</v>
+        <v>6306</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>7500435189682</t>
+          <t>7500435188876</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -8446,12 +8442,12 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2,302.00</t>
+          <t>5,630.00</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Mediano</t>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
         </is>
       </c>
       <c r="H166" t="inlineStr"/>
@@ -8465,27 +8461,27 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>Drimel7960</t>
+          <t>Drimel8003</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>PAMPERS-PANTS-PC-Gx30</t>
+          <t>PAMPERS-TOTAL-PROTECT-Gx44</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Pampers - Pants Protección Continua - Grande - 30 Unidades</t>
+          <t>Pampers - Pañal Total Protect - Grande - 44 Unidades</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>2737</v>
+        <v>2363</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>7500435178303</t>
+          <t>7500435167956</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -8495,7 +8491,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2,444.00</t>
+          <t>2,110.00</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -8514,27 +8510,27 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>Drimel7961</t>
+          <t>Drimel8005</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>PAMPERS-PANTS-PC-MES-Gx64</t>
+          <t>HUGGIES-CLASSIC-ULTRA-XXGx34</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Pampers - Pants Protección Continua - Mensual - Grande - 64 Unidades</t>
+          <t>HUGGIES CLASSIC ULTRA XXGx34</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>5825</v>
+        <v>1418</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>7500435141246</t>
+          <t>7794626008672</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -8544,7 +8540,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>5,201.00</t>
+          <t>1,233.00</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -8558,32 +8554,32 @@
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>Drimel7962</t>
+          <t>Drimel8092</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SELEC-EST-MEGA-Px30</t>
+          <t>PAMPERS-PANTS-PC-XGx26</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>SELEC.EST.MEGA Px30</t>
+          <t>Pampers - Pants Protección Continua - XGrande - 26 Unidades</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1122</v>
+        <v>3305</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>7500435189583</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -8593,42 +8589,46 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>935.00</t>
+          <t>2,951.00</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Pequeño</t>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
         </is>
       </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>Pampers</t>
+        </is>
+      </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>Drimel7995</t>
+          <t>Drimel8283</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>PAMPERS-PREMIUM-MES-HP-XGx58</t>
+          <t>pampers-pants-cs-hiper-xgx34</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Pampers - Pañal Premium Mensual Hiper - XGrande - 58 Unidades</t>
+          <t>Pampers - Pants Confort Sec Hiper - XGrande - 34 Unidades</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>5482</v>
+        <v>3816</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>7500435188883</t>
+          <t>7500435189613</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -8638,7 +8638,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>4,895.00</t>
+          <t>3,407.00</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -8657,27 +8657,27 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>Drimel8000</t>
+          <t>Drimel8284</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>PAMPERS-PREMIUM-XTR-MES-XXGx54</t>
+          <t>pampers-pants-pc-mes-xgx52</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM XTR MES XXGx54</t>
+          <t>Pampers - Pants Protección Continua - Mensual - XGrande - 52 Unidades</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>5482</v>
+        <v>5425</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>7500435188906</t>
+          <t>7500435189651</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -8687,7 +8687,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>4,895.00</t>
+          <t>4,717.00</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -8706,27 +8706,27 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>Drimel8001</t>
+          <t>Drimel8293</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>PAMPERS-PREMIUM-XTR-MES-Gx72</t>
+          <t>huggies-plus-protect-gx40</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM XTR MES Gx72</t>
+          <t>Huggies - Pañal Plus Protect - Grande - 40 Unidades</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>5221</v>
+        <v>3556</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>7500435188876</t>
+          <t>7794626011887</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -8736,7 +8736,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>4,662.00</t>
+          <t>3,175.00</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -8750,32 +8750,32 @@
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>Drimel8003</t>
+          <t>Drimel8294</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>PAMPERS-TOTAL-PROTECT-Gx44</t>
+          <t>PAMPERS-PREMIUM-XTR-HIPER-XXGx34</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Pampers - Pañal Total Protect - Grande - 44 Unidades</t>
+          <t>PAMPERS PREMIUM XTR HIPER XXGx34</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2363</v>
+        <v>3616</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>7500435167956</t>
+          <t>7500435188869</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2,110.00</t>
+          <t>3,144.00</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -8804,27 +8804,27 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>Drimel8005</t>
+          <t>Drimel8471</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>HUGGIES-CLASSIC-ULTRA-XXGx34</t>
+          <t>BABYSEC-ULTRA-REGULAR-Mx8</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>HUGGIES CLASSIC ULTRA XXGx34</t>
+          <t>Babysec - Pañal Ultra Regular - Mediano - 8 Unidades</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1418</v>
+        <v>589</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>7794626008672</t>
+          <t>7790250913306</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -8834,12 +8834,12 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>1,233.00</t>
+          <t>526.00</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Mediano</t>
         </is>
       </c>
       <c r="H174" t="inlineStr"/>
@@ -8848,32 +8848,32 @@
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Algabo Baby</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>Drimel8092</t>
+          <t>Drimel8504</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>PAMPERS-PANTS-PC-XGx26</t>
+          <t>NEW-DAYS-TOALLAS-HUMEDASx100</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Pampers - Pants Protección Continua - XGrande - 26 Unidades</t>
+          <t>NEW DAYS TOALLAS HUMEDASx100</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2737</v>
+        <v>179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>7500435189583</t>
+          <t>7797273000259</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -8883,46 +8883,38 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2,444.00</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
-        </is>
-      </c>
+          <t>156.00</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>Pampers</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr">
         <is>
-          <t>Drimel8283</t>
+          <t>Drimel8507</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>PAMPERS-PANTS-CS-HIPER-XGx34</t>
+          <t>huggies-plus-protect-xgx32</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Pampers - Pants Confort Sec Hiper - XGrande - 34 Unidades</t>
+          <t>Huggies - Pañal Plus Protect - XGrande - 32 Unidades</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3161</v>
+        <v>3556</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>7500435189613</t>
+          <t>7794626011894</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -8932,7 +8924,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2,822.00</t>
+          <t>3,175.00</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -8946,32 +8938,32 @@
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>Drimel8284</t>
+          <t>Drimel8577</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>PAMPERS-PANTS-PC-MES-XGx52</t>
+          <t>huggies-plus-protect-mx48</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Pampers - Pants Protección Continua - Mensual - XGrande - 52 Unidades</t>
+          <t>Huggies - Pañal Plus Protect - Mediano - 48 Unidades</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>5425</v>
+        <v>2405</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>7500435189651</t>
+          <t>7794626011870</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -8981,12 +8973,12 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>4,717.00</t>
+          <t>2,091.00</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Mediano</t>
         </is>
       </c>
       <c r="H177" t="inlineStr"/>
@@ -8995,32 +8987,32 @@
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>Drimel8293</t>
+          <t>Drimel8578</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>HUGGIES-PLUS-PROTECT-Gx40</t>
+          <t>duffy-pa-al-ahorro-mx52</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Huggies - Pañal Plus Protect - Grande - 40 Unidades</t>
+          <t>Duffy - Pañal Ahorro - Mediano - 52 Unidades</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>3092</v>
+        <v>3593</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>7794626011887</t>
+          <t>7798350082526</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -9030,12 +9022,12 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2,761.00</t>
+          <t>3,208.00</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Mediano</t>
         </is>
       </c>
       <c r="H178" t="inlineStr"/>
@@ -9044,32 +9036,32 @@
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Duffy</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>Drimel8294</t>
+          <t>Drimel8700</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PAMPERS-PREMIUM-XTR-HIPER-XXGx34</t>
+          <t>duffy-pa-al-ahorro-gx48</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM XTR HIPER XXGx34</t>
+          <t>Duffy - Pañal Ahorro - Grande - 48 Unidades</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>3616</v>
+        <v>3593</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>7500435188869</t>
+          <t>7798350082489</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -9079,7 +9071,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>3,144.00</t>
+          <t>3,208.00</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -9093,32 +9085,32 @@
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Duffy</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>Drimel8471</t>
+          <t>Drimel8701</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-REGULAR-Mx8</t>
+          <t>duffy-pa-al-ahorro-xgx44</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Babysec - Pañal Ultra Regular - Mediano - 8 Unidades</t>
+          <t>Duffy - Pañal Ahorro - XGrande - 44 Unidades</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>505</v>
+        <v>3593</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>7790250913306</t>
+          <t>7798350084445</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -9128,12 +9120,12 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>451.00</t>
+          <t>3,208.00</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Mediano</t>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
         </is>
       </c>
       <c r="H180" t="inlineStr"/>
@@ -9142,32 +9134,32 @@
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Algabo Baby</t>
+          <t>Duffy</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>Drimel8504</t>
+          <t>Drimel8702</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>NEW-DAYS-TOALLAS-HUMEDASx100</t>
+          <t>duffy-pa-al-ahorro-xxgx42</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>NEW DAYS TOALLAS HUMEDASx100</t>
+          <t>Duffy - Pañal Ahorro - XXGrande - 42 Unidades</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>179</v>
+        <v>3593</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>7797273000259</t>
+          <t>7798350085428</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -9177,38 +9169,46 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>156.00</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr"/>
+          <t>3,208.00</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
+        </is>
+      </c>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Duffy</t>
+        </is>
+      </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Drimel8507</t>
+          <t>Drimel8703</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>HUGGIES-PLUS-PROTECT-XGx32</t>
+          <t>DUFFY-PA-AL-COTTON-Gx32</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Huggies - Pañal Plus Protect - XGrande - 32 Unidades</t>
+          <t>Duffy - Pañal Cotton - Grande - 32 Unidades</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>3092</v>
+        <v>2221</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>7794626011894</t>
+          <t>7798350082328</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9218,7 +9218,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2,761.00</t>
+          <t>1,983.00</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -9232,32 +9232,32 @@
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Duffy</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>Drimel8577</t>
+          <t>Drimel8710</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>HUGGIES-PLUS-PROTECT-Mx48</t>
+          <t>PAMPERS-CONFORT-XTR-MES-XGx58</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Huggies - Pañal Plus Protect - Mediano - 48 Unidades</t>
+          <t>PAMPERS CONFORT XTR MES XGx58</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>2405</v>
+        <v>4934</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>7794626011870</t>
+          <t>7500435189118</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -9267,46 +9267,42 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2,091.00</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Mediano</t>
-        </is>
-      </c>
+          <t>4,405.00</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>Drimel8578</t>
+          <t>Drimel8723</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>DUFFY-PA-AL-AHORRO-Mx52</t>
+          <t>pampers-confort-xtr-hiper-px56</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Duffy - Pañal Ahorro - Mediano - 52 Unidades</t>
+          <t>Pampers - Confort XTR Hiper Px56</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2712</v>
+        <v>3222</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>7798350082526</t>
+          <t>7500435189040</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -9316,46 +9312,42 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2,421.00</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Mediano</t>
-        </is>
-      </c>
+          <t>2,877.00</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Duffy</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>Drimel8700</t>
+          <t>Drimel8726</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>DUFFY-PA-AL-AHORRO-Gx48</t>
+          <t>PAMPERS-CONFORT-XTR-MES-Mx72</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Duffy - Pañal Ahorro - Grande - 48 Unidades</t>
+          <t>PAMPERS CONFORT XTR MES Mx72</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2712</v>
+        <v>4934</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>7798350082489</t>
+          <t>7500435189095</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -9365,46 +9357,42 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2,421.00</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
-        </is>
-      </c>
+          <t>4,405.00</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Duffy</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>Drimel8701</t>
+          <t>Drimel8729</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>DUFFY-PA-AL-AHORRO-XGx44</t>
+          <t>PAMPERS-SUPER-MEGA-Mx26</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Duffy - Pañal Ahorro - XGrande - 44 Unidades</t>
+          <t>PAMPERS SUPER MEGA Mx26</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2712</v>
+        <v>897</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>7798350084445</t>
+          <t>7500435219273</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -9414,46 +9402,42 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2,421.00</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
-        </is>
-      </c>
+          <t>780.00</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Duffy</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>Drimel8702</t>
+          <t>Drimel8746</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>DUFFY-PA-AL-AHORRO-XXGx42</t>
+          <t>pampers-pants-cs-hiper-xxgx32</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Duffy - Pañal Ahorro - XXGrande - 42 Unidades</t>
+          <t>PAMPERS PANTS CS HIPER XXGx32</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>2712</v>
+        <v>2881</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>7798350085428</t>
+          <t>7500435178402</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -9463,46 +9447,42 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2,421.00</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
-        </is>
-      </c>
+          <t>2,505.00</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Duffy</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>Drimel8703</t>
+          <t>Drimel8748</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>DUFFY-PA-AL-COTTON-Gx32</t>
+          <t>PAMPERS-SUPER-XTR-MES-Mx72</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Duffy - Pañal Cotton - Grande - 32 Unidades</t>
+          <t>PAMPERS SUPER XTR MES Mx72</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1677</v>
+        <v>3577</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>7798350082328</t>
+          <t>7500435189347</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -9512,46 +9492,42 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>1,497.00</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
-        </is>
-      </c>
+          <t>3,110.00</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Duffy</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>Drimel8710</t>
+          <t>Drimel8766</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>PAMPERS-CONFORT-XTR-MES-XGx58</t>
+          <t>babysec-super-premium-xgrande-x-36</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>PAMPERS CONFORT XTR MES XGx58</t>
+          <t>Babysec - Super premium - XGrande x 36</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>4934</v>
+        <v>3172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>7500435189118</t>
+          <t>7730219049035</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -9561,7 +9537,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>4,405.00</t>
+          <t>2,758.00</t>
         </is>
       </c>
       <c r="G189" t="inlineStr"/>
@@ -9571,32 +9547,32 @@
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Babysec</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>Drimel8723</t>
+          <t>Drimel8767</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>pampers-confort-xtr-hiper-px56</t>
+          <t>babysec-super-premium-xxgrande-x-34</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Pampers - Confort XTR Hiper Px56</t>
+          <t>Babysec - Super premium - XXGrande x 34</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>2801</v>
+        <v>3172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>7500435189040</t>
+          <t>7730219049042</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -9606,7 +9582,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2,501.00</t>
+          <t>2,758.00</t>
         </is>
       </c>
       <c r="G190" t="inlineStr"/>
@@ -9616,32 +9592,32 @@
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Babysec</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>Drimel8726</t>
+          <t>Drimel8768</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>PAMPERS-CONFORT-XTR-MES-Mx72</t>
+          <t>PAMPERS-PREMIUM-XTR-RN-x56</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>PAMPERS CONFORT XTR MES Mx72</t>
+          <t>PAMPERS PREMIUM XTR RN+ x56</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>4934</v>
+        <v>3595</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>7500435189095</t>
+          <t>7500435188760</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -9651,10 +9627,14 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>4,405.00</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr"/>
+          <t>3,210.00</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Recien Nacido</t>
+        </is>
+      </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -9666,27 +9646,27 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>Drimel8729</t>
+          <t>Drimel9514</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>PAMPERS-SUPER-MEGA-Mx26</t>
+          <t>pampers-premium-xtr-mes-xgx58</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>PAMPERS SUPER MEGA Mx26</t>
+          <t>Pampers - Pañal Premium XTR - XGrande - 58 Unidades</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>897</v>
+        <v>6306</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>7500435219273</t>
+          <t>7500435188897</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -9696,11 +9676,19 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>780.00</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr"/>
+          <t>5,630.00</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>higiene, mes, Pampers Premium, panal, XGx58</t>
+        </is>
+      </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
@@ -9711,288 +9699,6 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>Drimel8746</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>PAMPERS-PANTS-CS-HIPER-XXGx32</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>PAMPERS PANTS CS HIPER XXGx32</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
-        <v>2881</v>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>7500435178402</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>Drimel</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>2,505.00</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>Pampers</t>
-        </is>
-      </c>
-      <c r="M193" t="inlineStr">
-        <is>
-          <t>Drimel8748</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>PAMPERS-SUPER-XTR-MES-Mx72</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>PAMPERS SUPER XTR MES Mx72</t>
-        </is>
-      </c>
-      <c r="C194" t="n">
-        <v>3577</v>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>7500435189347</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Drimel</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>3,110.00</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>Pampers</t>
-        </is>
-      </c>
-      <c r="M194" t="inlineStr">
-        <is>
-          <t>Drimel8766</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>babysec-super-premium-xgrande-x-36</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Babysec - Super premium - XGrande x 36</t>
-        </is>
-      </c>
-      <c r="C195" t="n">
-        <v>3172</v>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>7730219049035</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>Drimel</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>2,758.00</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>Babysec</t>
-        </is>
-      </c>
-      <c r="M195" t="inlineStr">
-        <is>
-          <t>Drimel8767</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>babysec-super-premium-xxgrande-x-34</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Babysec - Super premium - XXGrande x 34</t>
-        </is>
-      </c>
-      <c r="C196" t="n">
-        <v>3172</v>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>7730219049042</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>Drimel</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>2,758.00</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>Babysec</t>
-        </is>
-      </c>
-      <c r="M196" t="inlineStr">
-        <is>
-          <t>Drimel8768</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>PAMPERS-PREMIUM-XTR-RN-x56</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>PAMPERS PREMIUM XTR RN+ x56</t>
-        </is>
-      </c>
-      <c r="C197" t="n">
-        <v>3127</v>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>7500435188760</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>Drimel</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>2,792.00</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Recien Nacido</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr"/>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>Pampers</t>
-        </is>
-      </c>
-      <c r="M197" t="inlineStr">
-        <is>
-          <t>Drimel9514</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>PAMPERS-PREMIUM-XTR-MES-XGx58</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Pampers - Pañal Premium XTR - XGrande - 58 Unidades</t>
-        </is>
-      </c>
-      <c r="C198" t="n">
-        <v>5482</v>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>7500435188897</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>Drimel</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>4,895.00</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>Bebés y Maternidad &gt; Pañales &gt; Grande</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>higiene, mes, Pampers Premium, panal, XGx58</t>
-        </is>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>Pampers</t>
-        </is>
-      </c>
-      <c r="M198" t="inlineStr">
-        <is>
           <t>Drimel9517</t>
         </is>
       </c>
